--- a/database/BD/backup/precios - nuevos unis.xlsx
+++ b/database/BD/backup/precios - nuevos unis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1Precios base SQL'!$A$1:$D$121</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -828,15 +828,9 @@
     <t xml:space="preserve">', </t>
   </si>
   <si>
-    <t>INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( '</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ) ; </t>
   </si>
   <si>
-    <t xml:space="preserve">, 'Activo', 0, 0, </t>
-  </si>
-  <si>
     <t>Rectangular</t>
   </si>
   <si>
@@ -1294,12 +1288,18 @@
   </si>
   <si>
     <t>Yeso (kilo)</t>
+  </si>
+  <si>
+    <t>INSERT INTO item ( name, price, state, idUnit) VALUES ( '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, 'Activo', </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1457,23 +1457,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1509,23 +1492,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1684,22 +1650,22 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1713,7 +1679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1727,7 +1693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>130</v>
       </c>
@@ -1749,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1760,7 +1726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1774,7 +1740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>134</v>
       </c>
@@ -1796,12 +1762,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1809,12 +1775,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1830,12 +1796,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1863,7 +1829,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1877,12 +1843,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
@@ -1896,7 +1862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -1910,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1924,7 +1890,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -1938,7 +1904,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -1952,7 +1918,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1966,7 +1932,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -1980,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -1994,12 +1960,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2013,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -2027,12 +1993,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -2046,7 +2012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
@@ -2060,7 +2026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -2074,7 +2040,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -2088,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -2102,12 +2068,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,7 +2087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
@@ -2135,7 +2101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -2149,12 +2115,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
@@ -2168,12 +2134,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -2187,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -2201,12 +2167,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
@@ -2220,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
@@ -2234,7 +2200,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>36</v>
       </c>
@@ -2248,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>35</v>
       </c>
@@ -2262,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
@@ -2276,12 +2242,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>30</v>
       </c>
@@ -2295,12 +2261,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>30</v>
       </c>
@@ -2314,12 +2280,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
@@ -2333,12 +2299,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>30</v>
       </c>
@@ -2352,12 +2318,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
@@ -2371,12 +2337,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>30</v>
       </c>
@@ -2390,12 +2356,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>44</v>
       </c>
@@ -2409,7 +2375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>45</v>
       </c>
@@ -2423,7 +2389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>46</v>
       </c>
@@ -2437,7 +2403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>47</v>
       </c>
@@ -2451,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>48</v>
       </c>
@@ -2465,7 +2431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>49</v>
       </c>
@@ -2479,7 +2445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>50</v>
       </c>
@@ -2493,7 +2459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -2507,7 +2473,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D99" s="2" t="s">
         <v>178</v>
       </c>
@@ -2515,7 +2481,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>52</v>
       </c>
@@ -2526,7 +2492,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>18</v>
       </c>
@@ -2540,7 +2506,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>53</v>
       </c>
@@ -2554,7 +2520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>54</v>
       </c>
@@ -2568,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>55</v>
       </c>
@@ -2582,7 +2548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>56</v>
       </c>
@@ -2593,7 +2559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>57</v>
       </c>
@@ -2607,7 +2573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D109" s="2" t="s">
         <v>186</v>
       </c>
@@ -2615,12 +2581,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>59</v>
       </c>
@@ -2634,7 +2600,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>60</v>
       </c>
@@ -2648,7 +2614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,7 +2628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D114" s="2" t="s">
         <v>190</v>
       </c>
@@ -2670,7 +2636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D115" s="2" t="s">
         <v>191</v>
       </c>
@@ -2678,12 +2644,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,7 +2663,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>63</v>
       </c>
@@ -2711,12 +2677,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>32</v>
       </c>
@@ -2730,7 +2696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>66</v>
       </c>
@@ -2744,7 +2710,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>30</v>
       </c>
@@ -2758,7 +2724,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>67</v>
       </c>
@@ -2772,7 +2738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>68</v>
       </c>
@@ -2786,7 +2752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>69</v>
       </c>
@@ -2800,12 +2766,12 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>71</v>
       </c>
@@ -2819,7 +2785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>72</v>
       </c>
@@ -2833,7 +2799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>73</v>
       </c>
@@ -2856,7 +2822,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>74</v>
       </c>
@@ -2879,7 +2845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>75</v>
       </c>
@@ -2902,7 +2868,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>76</v>
       </c>
@@ -2925,7 +2891,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>77</v>
       </c>
@@ -2948,7 +2914,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>78</v>
       </c>
@@ -2971,12 +2937,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>81</v>
       </c>
@@ -2990,7 +2956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>82</v>
       </c>
@@ -3004,12 +2970,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>84</v>
       </c>
@@ -3023,7 +2989,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>85</v>
       </c>
@@ -3037,7 +3003,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>86</v>
       </c>
@@ -3051,7 +3017,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,7 +3031,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>88</v>
       </c>
@@ -3079,7 +3045,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>89</v>
       </c>
@@ -3093,7 +3059,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>90</v>
       </c>
@@ -3107,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>91</v>
       </c>
@@ -3121,7 +3087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>92</v>
       </c>
@@ -3135,7 +3101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>93</v>
       </c>
@@ -3149,12 +3115,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>95</v>
       </c>
@@ -3168,7 +3134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>99</v>
       </c>
@@ -3182,7 +3148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>96</v>
       </c>
@@ -3196,7 +3162,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>97</v>
       </c>
@@ -3210,7 +3176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>98</v>
       </c>
@@ -3224,7 +3190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>100</v>
       </c>
@@ -3238,12 +3204,12 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>102</v>
       </c>
@@ -3257,7 +3223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>103</v>
       </c>
@@ -3271,7 +3237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>104</v>
       </c>
@@ -3285,7 +3251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>105</v>
       </c>
@@ -3299,7 +3265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>106</v>
       </c>
@@ -3313,7 +3279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>107</v>
       </c>
@@ -3327,7 +3293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>108</v>
       </c>
@@ -3341,7 +3307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>109</v>
       </c>
@@ -3355,12 +3321,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>111</v>
       </c>
@@ -3374,7 +3340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>112</v>
       </c>
@@ -3388,7 +3354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>113</v>
       </c>
@@ -3402,7 +3368,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>114</v>
       </c>
@@ -3416,7 +3382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>115</v>
       </c>
@@ -3430,12 +3396,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>117</v>
       </c>
@@ -3449,7 +3415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>118</v>
       </c>
@@ -3463,7 +3429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>119</v>
       </c>
@@ -3477,7 +3443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>80</v>
       </c>
@@ -3491,12 +3457,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>117</v>
       </c>
@@ -3510,7 +3476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>118</v>
       </c>
@@ -3524,7 +3490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>119</v>
       </c>
@@ -3538,12 +3504,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>117</v>
       </c>
@@ -3557,7 +3523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>118</v>
       </c>
@@ -3581,20 +3547,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="129.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="129.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -3611,22 +3579,22 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>VLOOKUP(B2,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D2" s="3">
         <v>3.5</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H2" t="str">
         <f>C2</f>
@@ -3640,27 +3608,27 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L2">
         <f>A2</f>
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE(G2,H2,I2,J2,K2,L2,M2)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Aceite 3 en 1', 3.5, 'Activo', 0, 0, 2 ) ; </v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Aceite 3 en 1', 3.5, 'Activo', 2 ) ; </v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>VLOOKUP(B3,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>106</v>
@@ -3669,7 +3637,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">C3</f>
@@ -3683,21 +3651,21 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="2">A3</f>
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N66" si="3">CONCATENATE(G3,H3,I3,J3,K3,L3,M3)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Acido muriatico 1L', 5, 'Activo', 0, 0, 2 ) ; </v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Acido muriatico 1L', 5, 'Activo', 2 ) ; </v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>VLOOKUP(B4,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -3706,13 +3674,13 @@
         <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -3726,21 +3694,21 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador agua 1/2"', 1, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Adaptador agua 1/2"', 1, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>VLOOKUP(B5,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -3749,13 +3717,13 @@
         <v>241</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -3769,21 +3737,21 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador agua 1/2" CALIENTE', 1, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Adaptador agua 1/2" CALIENTE', 1, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>VLOOKUP(B6,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -3792,13 +3760,13 @@
         <v>241</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D6" s="3">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -3812,21 +3780,21 @@
         <v>2.5</v>
       </c>
       <c r="K6" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador agua 3/4"', 2.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Adaptador agua 3/4"', 2.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>VLOOKUP(B7,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -3835,13 +3803,13 @@
         <v>242</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -3855,21 +3823,21 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Alambre N16', 4, 'Activo', 0, 0, 5 ) ; </v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Alambre N16', 4, 'Activo', 5 ) ; </v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>VLOOKUP(B8,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -3878,13 +3846,13 @@
         <v>242</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -3898,21 +3866,21 @@
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Alambre N8', 4, 'Activo', 0, 0, 5 ) ; </v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Alambre N8', 4, 'Activo', 5 ) ; </v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>VLOOKUP(B9,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>8</v>
@@ -3927,7 +3895,7 @@
         <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -3941,21 +3909,21 @@
         <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Arena fina', 60, 'Activo', 0, 0, 8 ) ; </v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Arena fina', 60, 'Activo', 8 ) ; </v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>VLOOKUP(B10,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -3964,13 +3932,13 @@
         <v>244</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -3984,21 +3952,21 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Arena fina (bolsa)', 3, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Arena fina (bolsa)', 3, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>VLOOKUP(B11,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>8</v>
@@ -4013,7 +3981,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -4027,21 +3995,21 @@
         <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Arena gruesa', 50, 'Activo', 0, 0, 8 ) ; </v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Arena gruesa', 50, 'Activo', 8 ) ; </v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>VLOOKUP(B12,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -4050,13 +4018,13 @@
         <v>244</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -4070,36 +4038,36 @@
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Arena gruesa (bolsa)', 3, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Arena gruesa (bolsa)', 3, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>VLOOKUP(B13,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -4113,21 +4081,21 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Arena gruesa (Carretilla)', 5, 'Activo', 0, 0, 13 ) ; </v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Arena gruesa (Carretilla)', 5, 'Activo', 13 ) ; </v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>VLOOKUP(B14,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>10</v>
@@ -4136,13 +4104,13 @@
         <v>243</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D14" s="3">
         <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -4156,21 +4124,21 @@
         <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cable luz N12', 145, 'Activo', 0, 0, 10 ) ; </v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cable luz N12', 145, 'Activo', 10 ) ; </v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>VLOOKUP(B15,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>10</v>
@@ -4179,13 +4147,13 @@
         <v>243</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D15" s="3">
         <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -4199,21 +4167,21 @@
         <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cable luz N14', 80, 'Activo', 0, 0, 10 ) ; </v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cable luz N14', 80, 'Activo', 10 ) ; </v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>VLOOKUP(B16,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -4222,13 +4190,13 @@
         <v>241</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D16" s="3">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -4242,21 +4210,21 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Calamina 3.0m', 13, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Calamina 3.0m', 13, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>VLOOKUP(B17,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -4265,13 +4233,13 @@
         <v>241</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D17" s="3">
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -4285,21 +4253,21 @@
         <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Calamina 3.6m', 15, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Calamina 3.6m', 15, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>VLOOKUP(B18,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -4308,13 +4276,13 @@
         <v>242</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D18" s="3">
         <v>0.7</v>
       </c>
       <c r="G18" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -4328,21 +4296,21 @@
         <v>0.7</v>
       </c>
       <c r="K18" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento (kilo)', 0.7, 'Activo', 0, 0, 5 ) ; </v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cemento (kilo)', 0.7, 'Activo', 5 ) ; </v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>VLOOKUP(B19,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -4351,13 +4319,13 @@
         <v>244</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D19" s="3">
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -4371,21 +4339,21 @@
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino TIPO 1', 24, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cemento andino TIPO 1', 24, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>VLOOKUP(B20,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -4394,13 +4362,13 @@
         <v>244</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D20" s="3">
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -4414,21 +4382,21 @@
         <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino TIPO 5', 28, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cemento andino TIPO 5', 28, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>VLOOKUP(B21,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -4437,13 +4405,13 @@
         <v>244</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D21" s="3">
         <v>19.5</v>
       </c>
       <c r="G21" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -4457,21 +4425,21 @@
         <v>19.5</v>
       </c>
       <c r="K21" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento apu TIPO 1', 19.5, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cemento apu TIPO 1', 19.5, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>VLOOKUP(B22,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -4480,13 +4448,13 @@
         <v>244</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D22" s="3">
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -4500,21 +4468,21 @@
         <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka AZUL', 23, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cemento inka AZUL', 23, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>VLOOKUP(B23,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -4523,13 +4491,13 @@
         <v>244</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D23" s="3">
         <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -4543,21 +4511,21 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka ROJO', 21, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cemento inka ROJO', 21, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>VLOOKUP(B24,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -4566,13 +4534,13 @@
         <v>244</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D24" s="3">
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -4586,21 +4554,21 @@
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento sol TIPO 1', 22, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cemento sol TIPO 1', 22, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>VLOOKUP(B25,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -4609,13 +4577,13 @@
         <v>241</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D25" s="3">
         <v>3.5</v>
       </c>
       <c r="G25" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -4629,21 +4597,21 @@
         <v>3.5</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cinta aislante grande 18m - 3M', 3.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cinta aislante grande 18m - 3M', 3.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>VLOOKUP(B26,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -4652,13 +4620,13 @@
         <v>241</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D26" s="3">
         <v>1.5</v>
       </c>
       <c r="G26" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -4672,21 +4640,21 @@
         <v>1.5</v>
       </c>
       <c r="K26" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cinta aislante pequeño 4.5m - 3M', 1.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Cinta aislante pequeño 4.5m - 3M', 1.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>VLOOKUP(B27,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -4695,13 +4663,13 @@
         <v>242</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D27" s="3">
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -4715,21 +4683,21 @@
         <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 1"', 8, 'Activo', 0, 0, 5 ) ; </v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Clavo 1"', 8, 'Activo', 5 ) ; </v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>VLOOKUP(B28,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -4738,13 +4706,13 @@
         <v>242</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D28" s="3">
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -4758,21 +4726,21 @@
         <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 1-1/2"', 8, 'Activo', 0, 0, 5 ) ; </v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Clavo 1-1/2"', 8, 'Activo', 5 ) ; </v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>VLOOKUP(B29,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -4781,13 +4749,13 @@
         <v>242</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D29" s="3">
         <v>4.5</v>
       </c>
       <c r="G29" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -4801,21 +4769,21 @@
         <v>4.5</v>
       </c>
       <c r="K29" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 2"', 4.5, 'Activo', 0, 0, 5 ) ; </v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Clavo 2"', 4.5, 'Activo', 5 ) ; </v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>VLOOKUP(B30,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -4824,13 +4792,13 @@
         <v>242</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D30" s="3">
         <v>4.5</v>
       </c>
       <c r="G30" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -4844,21 +4812,21 @@
         <v>4.5</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 2-1/2"', 4.5, 'Activo', 0, 0, 5 ) ; </v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Clavo 2-1/2"', 4.5, 'Activo', 5 ) ; </v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>VLOOKUP(B31,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -4867,13 +4835,13 @@
         <v>242</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D31" s="3">
         <v>4.5</v>
       </c>
       <c r="G31" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -4887,21 +4855,21 @@
         <v>4.5</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 3"', 4.5, 'Activo', 0, 0, 5 ) ; </v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Clavo 3"', 4.5, 'Activo', 5 ) ; </v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>VLOOKUP(B32,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -4910,13 +4878,13 @@
         <v>242</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D32" s="3">
         <v>4.5</v>
       </c>
       <c r="G32" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -4930,21 +4898,21 @@
         <v>4.5</v>
       </c>
       <c r="K32" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 4"', 4.5, 'Activo', 0, 0, 5 ) ; </v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Clavo 4"', 4.5, 'Activo', 5 ) ; </v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>VLOOKUP(B33,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>3</v>
@@ -4953,13 +4921,13 @@
         <v>245</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D33" s="3">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -4973,21 +4941,21 @@
         <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo acero 2" (caja)', 9, 'Activo', 0, 0, 3 ) ; </v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Clavo acero 2" (caja)', 9, 'Activo', 3 ) ; </v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>VLOOKUP(B34,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>3</v>
@@ -4996,13 +4964,13 @@
         <v>245</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D34" s="3">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -5016,21 +4984,21 @@
         <v>9</v>
       </c>
       <c r="K34" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo acero 3" (caja)', 9, 'Activo', 0, 0, 3 ) ; </v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Clavo acero 3" (caja)', 9, 'Activo', 3 ) ; </v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>VLOOKUP(B35,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>3</v>
@@ -5039,13 +5007,13 @@
         <v>245</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D35" s="3">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -5059,21 +5027,21 @@
         <v>9</v>
       </c>
       <c r="K35" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo acero 4" (caja)', 9, 'Activo', 0, 0, 3 ) ; </v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Clavo acero 4" (caja)', 9, 'Activo', 3 ) ; </v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>VLOOKUP(B36,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -5082,13 +5050,13 @@
         <v>242</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D36" s="3">
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -5102,21 +5070,21 @@
         <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo calamina', 8, 'Activo', 0, 0, 5 ) ; </v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Clavo calamina', 8, 'Activo', 5 ) ; </v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>VLOOKUP(B37,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5125,13 +5093,13 @@
         <v>241</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -5145,21 +5113,21 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo agua 1/2"', 1, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo agua 1/2"', 1, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>VLOOKUP(B38,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5168,13 +5136,13 @@
         <v>241</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -5188,21 +5156,21 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo agua 1/2" CALIENTE', 1, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo agua 1/2" CALIENTE', 1, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>VLOOKUP(B39,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5211,13 +5179,13 @@
         <v>241</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D39" s="3">
         <v>2.5</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -5231,21 +5199,21 @@
         <v>2.5</v>
       </c>
       <c r="K39" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo agua 3/4" 45°', 2.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo agua 3/4" 45°', 2.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>VLOOKUP(B40,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5254,13 +5222,13 @@
         <v>241</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D40" s="3">
         <v>2.5</v>
       </c>
       <c r="G40" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
@@ -5274,21 +5242,21 @@
         <v>2.5</v>
       </c>
       <c r="K40" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo agua 3/4" 90°', 2.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo agua 3/4" 90°', 2.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>VLOOKUP(B41,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5297,13 +5265,13 @@
         <v>241</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D41" s="3">
         <v>4.5</v>
       </c>
       <c r="G41" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
@@ -5317,21 +5285,21 @@
         <v>4.5</v>
       </c>
       <c r="K41" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo bronce 1/2"', 4.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo bronce 1/2"', 4.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>VLOOKUP(B42,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5340,13 +5308,13 @@
         <v>241</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D42" s="3">
         <v>1.5</v>
       </c>
       <c r="G42" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
@@ -5360,21 +5328,21 @@
         <v>1.5</v>
       </c>
       <c r="K42" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo desague 2" 45°', 1.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo desague 2" 45°', 1.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>VLOOKUP(B43,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5383,13 +5351,13 @@
         <v>241</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D43" s="3">
         <v>1.5</v>
       </c>
       <c r="G43" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
@@ -5403,21 +5371,21 @@
         <v>1.5</v>
       </c>
       <c r="K43" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo desague 2" 90°', 1.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo desague 2" 90°', 1.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>VLOOKUP(B44,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5426,13 +5394,13 @@
         <v>241</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D44" s="3">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
@@ -5446,21 +5414,21 @@
         <v>5</v>
       </c>
       <c r="K44" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo desague 4" 45°', 5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo desague 4" 45°', 5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>VLOOKUP(B45,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5469,13 +5437,13 @@
         <v>241</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D45" s="3">
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
@@ -5489,21 +5457,21 @@
         <v>5</v>
       </c>
       <c r="K45" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo desague 4" 90°', 5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo desague 4" 90°', 5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>VLOOKUP(B46,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5512,13 +5480,13 @@
         <v>241</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D46" s="3">
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -5532,21 +5500,21 @@
         <v>7</v>
       </c>
       <c r="K46" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo desague 4"a2"', 7, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo desague 4"a2"', 7, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>VLOOKUP(B47,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5555,13 +5523,13 @@
         <v>241</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D47" s="3">
         <v>1.5</v>
       </c>
       <c r="G47" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -5575,21 +5543,21 @@
         <v>1.5</v>
       </c>
       <c r="K47" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo galvanizado 1/2"', 1.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo galvanizado 1/2"', 1.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>VLOOKUP(B48,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5598,13 +5566,13 @@
         <v>241</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -5618,21 +5586,21 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo luz 1"', 1, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo luz 1"', 1, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>VLOOKUP(B49,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5641,13 +5609,13 @@
         <v>241</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D49" s="3">
         <v>0.5</v>
       </c>
       <c r="G49" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -5661,21 +5629,21 @@
         <v>0.5</v>
       </c>
       <c r="K49" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo luz 3/4"', 0.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Codo luz 3/4"', 0.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>VLOOKUP(B50,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5684,13 +5652,13 @@
         <v>241</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D50" s="3">
         <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -5704,21 +5672,21 @@
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro 14"', 20, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Disco corte fierro 14"', 20, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>VLOOKUP(B51,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5727,13 +5695,13 @@
         <v>241</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D51" s="3">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -5747,21 +5715,21 @@
         <v>5</v>
       </c>
       <c r="K51" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro 4"', 5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Disco corte fierro 4"', 5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>VLOOKUP(B52,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5770,13 +5738,13 @@
         <v>241</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D52" s="3">
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -5790,21 +5758,21 @@
         <v>8</v>
       </c>
       <c r="K52" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro 7"', 8, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Disco corte fierro 7"', 8, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>VLOOKUP(B53,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5813,13 +5781,13 @@
         <v>241</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D53" s="3">
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
@@ -5833,21 +5801,21 @@
         <v>12</v>
       </c>
       <c r="K53" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro 9"', 12, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Disco corte fierro 9"', 12, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>VLOOKUP(B54,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5856,13 +5824,13 @@
         <v>241</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D54" s="3">
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -5876,21 +5844,21 @@
         <v>15</v>
       </c>
       <c r="K54" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto 15" - dinamo', 15, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Disco para concreto 15" - dinamo', 15, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>VLOOKUP(B55,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5899,13 +5867,13 @@
         <v>241</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D55" s="3">
         <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
@@ -5919,21 +5887,21 @@
         <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto 15" - kamasa', 22, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Disco para concreto 15" - kamasa', 22, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>VLOOKUP(B56,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5942,13 +5910,13 @@
         <v>241</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D56" s="3">
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
@@ -5962,21 +5930,21 @@
         <v>30</v>
       </c>
       <c r="K56" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto 30" - dinamo', 30, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Disco para concreto 30" - dinamo', 30, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>VLOOKUP(B57,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -5985,13 +5953,13 @@
         <v>241</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D57" s="3">
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
@@ -6005,21 +5973,21 @@
         <v>8</v>
       </c>
       <c r="K57" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto 4" - dinamo', 8, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Disco para concreto 4" - dinamo', 8, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>VLOOKUP(B58,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6028,13 +5996,13 @@
         <v>241</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D58" s="3">
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
@@ -6048,21 +6016,21 @@
         <v>9</v>
       </c>
       <c r="K58" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto 4" - kamasa', 9, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Disco para concreto 4" - kamasa', 9, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>VLOOKUP(B59,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6071,13 +6039,13 @@
         <v>241</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D59" s="3">
         <v>2.5</v>
       </c>
       <c r="G59" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
@@ -6091,21 +6059,21 @@
         <v>2.5</v>
       </c>
       <c r="K59" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Espor Lay', 2.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Espor Lay', 2.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>VLOOKUP(B60,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6120,7 +6088,7 @@
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
@@ -6134,21 +6102,21 @@
         <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fibraforte rojo', 4, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fibraforte rojo', 4, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>VLOOKUP(B61,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6163,7 +6131,7 @@
         <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
@@ -6177,21 +6145,21 @@
         <v>16</v>
       </c>
       <c r="K61" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fibraforte rojo economico', 16, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fibraforte rojo economico', 16, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>VLOOKUP(B62,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6206,7 +6174,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
@@ -6220,21 +6188,21 @@
         <v>32</v>
       </c>
       <c r="K62" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L62">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fibraforte translucida', 32, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fibraforte translucida', 32, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>VLOOKUP(B63,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>14</v>
@@ -6243,13 +6211,13 @@
         <v>246</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D63" s="3">
         <v>24.5</v>
       </c>
       <c r="G63" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
@@ -6263,21 +6231,21 @@
         <v>24.5</v>
       </c>
       <c r="K63" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 1/2" - arequipa', 24.5, 'Activo', 0, 0, 14 ) ; </v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/2" - arequipa', 24.5, 'Activo', 14 ) ; </v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>VLOOKUP(B64,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6286,13 +6254,13 @@
         <v>241</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D64" s="3">
         <v>25.5</v>
       </c>
       <c r="G64" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
@@ -6306,21 +6274,21 @@
         <v>25.5</v>
       </c>
       <c r="K64" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L64">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 1/2" - siderperu', 25.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/2" - siderperu', 25.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>VLOOKUP(B65,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>14</v>
@@ -6329,13 +6297,13 @@
         <v>246</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D65" s="3">
         <v>6.5</v>
       </c>
       <c r="G65" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
@@ -6349,21 +6317,21 @@
         <v>6.5</v>
       </c>
       <c r="K65" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 1/4" 6mm - arequipa', 6.5, 'Activo', 0, 0, 14 ) ; </v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/4" 6mm - arequipa', 6.5, 'Activo', 14 ) ; </v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>VLOOKUP(B66,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6372,13 +6340,13 @@
         <v>241</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D66" s="3">
         <v>6.5</v>
       </c>
       <c r="G66" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
@@ -6392,21 +6360,21 @@
         <v>6.5</v>
       </c>
       <c r="K66" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L66">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 1/4" 6mm - siderperu', 6.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/4" 6mm - siderperu', 6.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>VLOOKUP(B67,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6415,13 +6383,13 @@
         <v>241</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D67" s="3">
         <v>58</v>
       </c>
       <c r="G67" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H121" si="4">C67</f>
@@ -6435,21 +6403,21 @@
         <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L121" si="6">A67</f>
         <v>12</v>
       </c>
       <c r="M67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" ref="N67:N121" si="7">CONCATENATE(G67,H67,I67,J67,K67,L67,M67)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 3/4" - siderperu', 58, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 3/4" - siderperu', 58, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>VLOOKUP(B68,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>14</v>
@@ -6458,13 +6426,13 @@
         <v>246</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D68" s="3">
         <v>14.5</v>
       </c>
       <c r="G68" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="4"/>
@@ -6478,21 +6446,21 @@
         <v>14.5</v>
       </c>
       <c r="K68" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L68">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="M68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 3/8" - arequipa', 14.5, 'Activo', 0, 0, 14 ) ; </v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 3/8" - arequipa', 14.5, 'Activo', 14 ) ; </v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>VLOOKUP(B69,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6501,13 +6469,13 @@
         <v>241</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D69" s="3">
         <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="4"/>
@@ -6521,21 +6489,21 @@
         <v>15</v>
       </c>
       <c r="K69" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L69">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 3/8" - siderperu', 15, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 3/8" - siderperu', 15, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>VLOOKUP(B70,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>14</v>
@@ -6544,13 +6512,13 @@
         <v>246</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D70" s="3">
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="4"/>
@@ -6564,21 +6532,21 @@
         <v>38</v>
       </c>
       <c r="K70" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L70">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="M70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 5/8" - arequipa', 38, 'Activo', 0, 0, 14 ) ; </v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 5/8" - arequipa', 38, 'Activo', 14 ) ; </v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>VLOOKUP(B71,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6587,13 +6555,13 @@
         <v>241</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D71" s="3">
         <v>39.5</v>
       </c>
       <c r="G71" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="4"/>
@@ -6607,21 +6575,21 @@
         <v>39.5</v>
       </c>
       <c r="K71" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L71">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 5/8" - siderperu', 39.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 5/8" - siderperu', 39.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>VLOOKUP(B72,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>14</v>
@@ -6630,13 +6598,13 @@
         <v>246</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D72" s="3">
         <v>10.5</v>
       </c>
       <c r="G72" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="4"/>
@@ -6650,21 +6618,21 @@
         <v>10.5</v>
       </c>
       <c r="K72" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L72">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="M72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 8mm - arequipa', 10.5, 'Activo', 0, 0, 14 ) ; </v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 8mm - arequipa', 10.5, 'Activo', 14 ) ; </v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>VLOOKUP(B73,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6673,13 +6641,13 @@
         <v>241</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D73" s="3">
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="4"/>
@@ -6693,21 +6661,21 @@
         <v>11</v>
       </c>
       <c r="K73" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L73">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N73" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 8mm - siderperu', 11, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 8mm - siderperu', 11, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>VLOOKUP(B74,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6716,13 +6684,13 @@
         <v>241</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D74" s="3">
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="4"/>
@@ -6736,21 +6704,21 @@
         <v>5</v>
       </c>
       <c r="K74" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L74">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N74" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco 27 W', 5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Foco 27 W', 5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>VLOOKUP(B75,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6759,13 +6727,13 @@
         <v>241</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D75" s="3">
         <v>6.5</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="4"/>
@@ -6779,21 +6747,21 @@
         <v>6.5</v>
       </c>
       <c r="K75" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L75">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N75" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco 32 W', 6.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Foco 32 W', 6.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>VLOOKUP(B76,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6802,13 +6770,13 @@
         <v>241</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D76" s="3">
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="4"/>
@@ -6822,21 +6790,21 @@
         <v>7</v>
       </c>
       <c r="K76" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L76">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N76" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco 42 W', 7, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Foco 42 W', 7, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>VLOOKUP(B77,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6845,13 +6813,13 @@
         <v>241</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D77" s="3">
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="4"/>
@@ -6865,21 +6833,21 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L77">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N77" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco 85 W', 14, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Foco 85 W', 14, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>VLOOKUP(B78,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -6888,13 +6856,13 @@
         <v>241</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D78" s="3">
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="4"/>
@@ -6908,21 +6876,21 @@
         <v>13</v>
       </c>
       <c r="K78" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L78">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N78" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco LED 7 W', 13, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Foco LED 7 W', 13, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>VLOOKUP(B79,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>9</v>
@@ -6931,13 +6899,13 @@
         <v>247</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D79" s="3">
         <v>670</v>
       </c>
       <c r="G79" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="4"/>
@@ -6951,21 +6919,21 @@
         <v>670</v>
       </c>
       <c r="K79" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L79">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N79" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo 18 huecos LIMPIO', 670, 'Activo', 0, 0, 9 ) ; </v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Ladrillo 18 huecos LIMPIO', 670, 'Activo', 9 ) ; </v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>VLOOKUP(B80,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>9</v>
@@ -6974,13 +6942,13 @@
         <v>247</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D80" s="3">
         <v>560</v>
       </c>
       <c r="G80" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="4"/>
@@ -6994,21 +6962,21 @@
         <v>560</v>
       </c>
       <c r="K80" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L80">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N80" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo 18 huecos SEMI LIMPIO', 560, 'Activo', 0, 0, 9 ) ; </v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Ladrillo 18 huecos SEMI LIMPIO', 560, 'Activo', 9 ) ; </v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>VLOOKUP(B81,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>9</v>
@@ -7017,13 +6985,13 @@
         <v>247</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D81" s="3">
         <v>410</v>
       </c>
       <c r="G81" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="4"/>
@@ -7037,21 +7005,21 @@
         <v>410</v>
       </c>
       <c r="K81" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L81">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N81" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo pandereta', 410, 'Activo', 0, 0, 9 ) ; </v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Ladrillo pandereta', 410, 'Activo', 9 ) ; </v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>VLOOKUP(B82,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7066,7 +7034,7 @@
         <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="4"/>
@@ -7080,21 +7048,21 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L82">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N82" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo pastelero (unidad)', 2, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Ladrillo pastelero (unidad)', 2, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>VLOOKUP(B83,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>9</v>
@@ -7103,13 +7071,13 @@
         <v>247</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D83" s="3">
         <v>2100</v>
       </c>
       <c r="G83" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="4"/>
@@ -7123,21 +7091,21 @@
         <v>2100</v>
       </c>
       <c r="K83" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L83">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N83" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo techo 12x30', 2100, 'Activo', 0, 0, 9 ) ; </v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Ladrillo techo 12x30', 2100, 'Activo', 9 ) ; </v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>VLOOKUP(B84,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>9</v>
@@ -7146,13 +7114,13 @@
         <v>247</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D84" s="3">
         <v>2100</v>
       </c>
       <c r="G84" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="4"/>
@@ -7166,21 +7134,21 @@
         <v>2100</v>
       </c>
       <c r="K84" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L84">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N84" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo techo 15x30', 2100, 'Activo', 0, 0, 9 ) ; </v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Ladrillo techo 15x30', 2100, 'Activo', 9 ) ; </v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>VLOOKUP(B85,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>9</v>
@@ -7189,13 +7157,13 @@
         <v>247</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D85" s="3">
         <v>2000</v>
       </c>
       <c r="G85" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="4"/>
@@ -7209,21 +7177,21 @@
         <v>2000</v>
       </c>
       <c r="K85" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L85">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N85" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo techo 8x30', 2000, 'Activo', 0, 0, 9 ) ; </v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Ladrillo techo 8x30', 2000, 'Activo', 9 ) ; </v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>VLOOKUP(B86,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7232,13 +7200,13 @@
         <v>241</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D86" s="3">
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="4"/>
@@ -7252,21 +7220,21 @@
         <v>4</v>
       </c>
       <c r="K86" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L86">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N86" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 2.5m', 4, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Liston 2.5m', 4, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>VLOOKUP(B87,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7275,13 +7243,13 @@
         <v>241</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D87" s="3">
         <v>4.5</v>
       </c>
       <c r="G87" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="4"/>
@@ -7295,21 +7263,21 @@
         <v>4.5</v>
       </c>
       <c r="K87" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L87">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N87" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 3m', 4.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Liston 3m', 4.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>VLOOKUP(B88,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7318,13 +7286,13 @@
         <v>241</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D88" s="3">
         <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="4"/>
@@ -7338,21 +7306,21 @@
         <v>32</v>
       </c>
       <c r="K88" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L88">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N88" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave check 1/4" - simbal', 32, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Llave check 1/4" - simbal', 32, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>VLOOKUP(B89,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7361,13 +7329,13 @@
         <v>241</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D89" s="3">
         <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="4"/>
@@ -7381,21 +7349,21 @@
         <v>45</v>
       </c>
       <c r="K89" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L89">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N89" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave check 3/4" - simbal', 45, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Llave check 3/4" - simbal', 45, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>VLOOKUP(B90,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7404,13 +7372,13 @@
         <v>241</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D90" s="3">
         <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="4"/>
@@ -7424,21 +7392,21 @@
         <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L90">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N90" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave de paso 1/2" - simbal', 22, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Llave de paso 1/2" - simbal', 22, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>VLOOKUP(B91,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7447,13 +7415,13 @@
         <v>241</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D91" s="3">
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="4"/>
@@ -7467,21 +7435,21 @@
         <v>38</v>
       </c>
       <c r="K91" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L91">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N91" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica 16 - bticino', 38, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Llave termica 16 - bticino', 38, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>VLOOKUP(B92,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7490,13 +7458,13 @@
         <v>241</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D92" s="3">
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="4"/>
@@ -7510,21 +7478,21 @@
         <v>38</v>
       </c>
       <c r="K92" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L92">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N92" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica 20 - bticino', 38, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Llave termica 20 - bticino', 38, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>VLOOKUP(B93,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7533,13 +7501,13 @@
         <v>241</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D93" s="3">
         <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="4"/>
@@ -7553,21 +7521,21 @@
         <v>38</v>
       </c>
       <c r="K93" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L93">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N93" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica 32 - bticino', 38, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Llave termica 32 - bticino', 38, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>VLOOKUP(B94,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7576,13 +7544,13 @@
         <v>241</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D94" s="3">
         <v>50</v>
       </c>
       <c r="G94" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="4"/>
@@ -7596,21 +7564,21 @@
         <v>50</v>
       </c>
       <c r="K94" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L94">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N94" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica 60 - bticino', 50, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Llave termica 60 - bticino', 50, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>VLOOKUP(B95,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7619,13 +7587,13 @@
         <v>241</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D95" s="3">
         <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="4"/>
@@ -7639,21 +7607,21 @@
         <v>18</v>
       </c>
       <c r="K95" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L95">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N95" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica 60 - stronger', 18, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Llave termica 60 - stronger', 18, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>VLOOKUP(B96,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>7</v>
@@ -7668,7 +7636,7 @@
         <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="4"/>
@@ -7682,21 +7650,21 @@
         <v>7</v>
       </c>
       <c r="K96" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L96">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M96" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N96" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Malla (x metro)', 7, 'Activo', 0, 0, 7 ) ; </v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Malla (x metro)', 7, 'Activo', 7 ) ; </v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>VLOOKUP(B97,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7705,13 +7673,13 @@
         <v>241</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="4"/>
@@ -7725,21 +7693,21 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L97">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N97" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Niple 1/2"', 1, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Niple 1/2"', 1, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>VLOOKUP(B98,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7748,13 +7716,13 @@
         <v>241</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D98" s="3">
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="4"/>
@@ -7768,21 +7736,21 @@
         <v>4</v>
       </c>
       <c r="K98" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L98">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N98" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Niple bronce 1/2"', 4, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Niple bronce 1/2"', 4, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>VLOOKUP(B99,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7791,13 +7759,13 @@
         <v>241</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D99" s="3">
         <v>1.5</v>
       </c>
       <c r="G99" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="4"/>
@@ -7811,21 +7779,21 @@
         <v>1.5</v>
       </c>
       <c r="K99" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L99">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N99" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Octogonal', 1.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Octogonal', 1.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>VLOOKUP(B100,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7834,13 +7802,13 @@
         <v>241</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D100" s="3">
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="4"/>
@@ -7854,21 +7822,21 @@
         <v>7</v>
       </c>
       <c r="K100" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L100">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N100" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 2.5m', 7, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Parante 2.5m', 7, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>VLOOKUP(B101,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -7877,13 +7845,13 @@
         <v>241</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D101" s="3">
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="4"/>
@@ -7897,21 +7865,21 @@
         <v>8</v>
       </c>
       <c r="K101" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L101">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N101" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 3m', 8, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Parante 3m', 8, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>VLOOKUP(B102,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -7920,13 +7888,13 @@
         <v>244</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D102" s="3">
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="4"/>
@@ -7940,36 +7908,36 @@
         <v>14</v>
       </c>
       <c r="K102" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L102">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M102" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N102" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento polvo - celima', 14, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Pegamento polvo - celima', 14, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>VLOOKUP(B103,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D103" s="3">
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="4"/>
@@ -7983,36 +7951,36 @@
         <v>11</v>
       </c>
       <c r="K103" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L103">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M103" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N103" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/16" AZUL', 11, 'Activo', 0, 0, 6 ) ; </v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Pegamento PVC 1/16" AZUL', 11, 'Activo', 6 ) ; </v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>VLOOKUP(B104,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>6</v>
       </c>
       <c r="B104" t="s">
+        <v>403</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D104" s="3">
         <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="4"/>
@@ -8026,36 +7994,36 @@
         <v>10</v>
       </c>
       <c r="K104" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L104">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N104" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/16" DORADO', 10, 'Activo', 0, 0, 6 ) ; </v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Pegamento PVC 1/16" DORADO', 10, 'Activo', 6 ) ; </v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>VLOOKUP(B105,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D105" s="3">
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="4"/>
@@ -8069,36 +8037,36 @@
         <v>8</v>
       </c>
       <c r="K105" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L105">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M105" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N105" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/32" AZUL', 8, 'Activo', 0, 0, 6 ) ; </v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Pegamento PVC 1/32" AZUL', 8, 'Activo', 6 ) ; </v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>VLOOKUP(B106,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D106" s="3">
         <v>7</v>
       </c>
       <c r="G106" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="4"/>
@@ -8112,36 +8080,36 @@
         <v>7</v>
       </c>
       <c r="K106" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L106">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M106" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N106" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/32" DORADO', 7, 'Activo', 0, 0, 6 ) ; </v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Pegamento PVC 1/32" DORADO', 7, 'Activo', 6 ) ; </v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>VLOOKUP(B107,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D107" s="3">
         <v>28</v>
       </c>
       <c r="G107" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="4"/>
@@ -8155,36 +8123,36 @@
         <v>28</v>
       </c>
       <c r="K107" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L107">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M107" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N107" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/4" DORADO', 28, 'Activo', 0, 0, 6 ) ; </v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Pegamento PVC 1/4" DORADO', 28, 'Activo', 6 ) ; </v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>VLOOKUP(B108,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D108" s="3">
         <v>25</v>
       </c>
       <c r="G108" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="4"/>
@@ -8198,36 +8166,36 @@
         <v>25</v>
       </c>
       <c r="K108" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L108">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N108" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/8" AZUL', 25, 'Activo', 0, 0, 6 ) ; </v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Pegamento PVC 1/8" AZUL', 25, 'Activo', 6 ) ; </v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>VLOOKUP(B109,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D109" s="3">
         <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="4"/>
@@ -8241,36 +8209,36 @@
         <v>15</v>
       </c>
       <c r="K109" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L109">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N109" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/8" DORADO', 15, 'Activo', 0, 0, 6 ) ; </v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Pegamento PVC 1/8" DORADO', 15, 'Activo', 6 ) ; </v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>VLOOKUP(B110,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D110" s="3">
         <v>6.5</v>
       </c>
       <c r="G110" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="4"/>
@@ -8284,21 +8252,21 @@
         <v>6.5</v>
       </c>
       <c r="K110" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L110">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M110" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N110" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC agua caliente', 6.5, 'Activo', 0, 0, 6 ) ; </v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Pegamento PVC agua caliente', 6.5, 'Activo', 6 ) ; </v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>VLOOKUP(B111,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -8307,13 +8275,13 @@
         <v>244</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D111" s="3">
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="4"/>
@@ -8327,21 +8295,21 @@
         <v>3</v>
       </c>
       <c r="K111" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L111">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N111" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Piedra (Bolsa)', 3, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Piedra (Bolsa)', 3, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>VLOOKUP(B112,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>8</v>
@@ -8356,7 +8324,7 @@
         <v>50</v>
       </c>
       <c r="G112" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="4"/>
@@ -8370,21 +8338,21 @@
         <v>50</v>
       </c>
       <c r="K112" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L112">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="M112" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N112" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Piedra chancada', 50, 'Activo', 0, 0, 8 ) ; </v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Piedra chancada', 50, 'Activo', 8 ) ; </v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <f>VLOOKUP(B113,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>8</v>
@@ -8398,8 +8366,8 @@
       <c r="D113" s="12">
         <v>50</v>
       </c>
-      <c r="G113" s="10" t="s">
-        <v>265</v>
+      <c r="G113" t="s">
+        <v>419</v>
       </c>
       <c r="H113" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8412,22 +8380,22 @@
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="K113" s="10" t="s">
-        <v>267</v>
+      <c r="K113" t="s">
+        <v>420</v>
       </c>
       <c r="L113" s="10">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N113" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Piedra confitillo', 50, 'Activo', 0, 0, 8 ) ; </v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Piedra confitillo', 50, 'Activo', 8 ) ; </v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <f>VLOOKUP(B114,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>8</v>
@@ -8441,8 +8409,8 @@
       <c r="D114" s="12">
         <v>50</v>
       </c>
-      <c r="G114" s="10" t="s">
-        <v>265</v>
+      <c r="G114" t="s">
+        <v>419</v>
       </c>
       <c r="H114" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8455,22 +8423,22 @@
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="K114" s="10" t="s">
-        <v>267</v>
+      <c r="K114" t="s">
+        <v>420</v>
       </c>
       <c r="L114" s="10">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N114" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Piedra zanja', 50, 'Activo', 0, 0, 8 ) ; </v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Piedra zanja', 50, 'Activo', 8 ) ; </v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <f>VLOOKUP(B115,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8479,13 +8447,13 @@
         <v>241</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D115" s="12">
         <v>1.5</v>
       </c>
-      <c r="G115" s="10" t="s">
-        <v>265</v>
+      <c r="G115" t="s">
+        <v>419</v>
       </c>
       <c r="H115" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8498,22 +8466,22 @@
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="K115" s="10" t="s">
-        <v>267</v>
+      <c r="K115" t="s">
+        <v>420</v>
       </c>
       <c r="L115" s="10">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N115" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Rectangular', 1.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Rectangular', 1.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <f>VLOOKUP(B116,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8522,13 +8490,13 @@
         <v>241</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D116" s="12">
         <v>3.5</v>
       </c>
-      <c r="G116" s="10" t="s">
-        <v>265</v>
+      <c r="G116" t="s">
+        <v>419</v>
       </c>
       <c r="H116" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8541,22 +8509,22 @@
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="K116" s="10" t="s">
-        <v>267</v>
+      <c r="K116" t="s">
+        <v>420</v>
       </c>
       <c r="L116" s="10">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N116" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Reduccion desague 4"a2"', 3.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Reduccion desague 4"a2"', 3.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <f>VLOOKUP(B117,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8565,13 +8533,13 @@
         <v>241</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D117" s="12">
         <v>14</v>
       </c>
-      <c r="G117" s="10" t="s">
-        <v>265</v>
+      <c r="G117" t="s">
+        <v>419</v>
       </c>
       <c r="H117" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8584,22 +8552,22 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="K117" s="10" t="s">
-        <v>267</v>
+      <c r="K117" t="s">
+        <v>420</v>
       </c>
       <c r="L117" s="10">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M117" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N117" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Rodillo 12" - toro', 14, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Rodillo 12" - toro', 14, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <f>VLOOKUP(B118,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8608,13 +8576,13 @@
         <v>241</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D118" s="12">
         <v>12</v>
       </c>
-      <c r="G118" s="10" t="s">
-        <v>265</v>
+      <c r="G118" t="s">
+        <v>419</v>
       </c>
       <c r="H118" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8627,37 +8595,37 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="K118" s="10" t="s">
-        <v>267</v>
+      <c r="K118" t="s">
+        <v>420</v>
       </c>
       <c r="L118" s="10">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N118" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Rodillo 9" - toro', 12, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Rodillo 9" - toro', 12, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <f>VLOOKUP(B119,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>4</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D119" s="12">
         <v>5</v>
       </c>
-      <c r="G119" s="10" t="s">
-        <v>265</v>
+      <c r="G119" t="s">
+        <v>419</v>
       </c>
       <c r="H119" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8670,22 +8638,22 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K119" s="10" t="s">
-        <v>267</v>
+      <c r="K119" t="s">
+        <v>420</v>
       </c>
       <c r="L119" s="10">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N119" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Sierra - Sanflex', 5, 'Activo', 0, 0, 4 ) ; </v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Sierra - Sanflex', 5, 'Activo', 4 ) ; </v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <f>VLOOKUP(B120,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>1</v>
@@ -8694,13 +8662,13 @@
         <v>244</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D120" s="12">
         <v>4.5</v>
       </c>
-      <c r="G120" s="10" t="s">
-        <v>265</v>
+      <c r="G120" t="s">
+        <v>419</v>
       </c>
       <c r="H120" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8713,22 +8681,22 @@
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="K120" s="10" t="s">
-        <v>267</v>
+      <c r="K120" t="s">
+        <v>420</v>
       </c>
       <c r="L120" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N120" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Sika', 4.5, 'Activo', 0, 0, 1 ) ; </v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Sika', 4.5, 'Activo', 1 ) ; </v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <f>VLOOKUP(B121,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8737,13 +8705,13 @@
         <v>241</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D121" s="12">
         <v>4</v>
       </c>
-      <c r="G121" s="10" t="s">
-        <v>265</v>
+      <c r="G121" t="s">
+        <v>419</v>
       </c>
       <c r="H121" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8756,22 +8724,22 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K121" s="10" t="s">
-        <v>267</v>
+      <c r="K121" t="s">
+        <v>420</v>
       </c>
       <c r="L121" s="10">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M121" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N121" s="10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Sumidero', 4, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Sumidero', 4, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <f>VLOOKUP(B122,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8780,13 +8748,13 @@
         <v>241</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D122" s="12">
         <v>410</v>
       </c>
-      <c r="G122" s="10" t="s">
-        <v>265</v>
+      <c r="G122" t="s">
+        <v>419</v>
       </c>
       <c r="H122" s="10" t="str">
         <f t="shared" ref="H122" si="8">C122</f>
@@ -8799,22 +8767,22 @@
         <f t="shared" ref="J122" si="9">D122</f>
         <v>410</v>
       </c>
-      <c r="K122" s="10" t="s">
-        <v>267</v>
+      <c r="K122" t="s">
+        <v>420</v>
       </c>
       <c r="L122" s="10">
         <f t="shared" ref="L122" si="10">A122</f>
         <v>12</v>
       </c>
       <c r="M122" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N122" s="10" t="str">
         <f t="shared" ref="N122" si="11">CONCATENATE(G122,H122,I122,J122,K122,L122,M122)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tanque 1100L', 410, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tanque 1100L', 410, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <f>VLOOKUP(B123,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8823,13 +8791,13 @@
         <v>241</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D123" s="12">
         <v>1</v>
       </c>
-      <c r="G123" s="10" t="s">
-        <v>265</v>
+      <c r="G123" t="s">
+        <v>419</v>
       </c>
       <c r="H123" s="10" t="str">
         <f t="shared" ref="H123" si="12">C123</f>
@@ -8842,22 +8810,22 @@
         <f t="shared" ref="J123" si="13">D123</f>
         <v>1</v>
       </c>
-      <c r="K123" s="10" t="s">
-        <v>267</v>
+      <c r="K123" t="s">
+        <v>420</v>
       </c>
       <c r="L123" s="10">
         <f t="shared" ref="L123" si="14">A123</f>
         <v>12</v>
       </c>
       <c r="M123" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N123" s="10" t="str">
         <f t="shared" ref="N123" si="15">CONCATENATE(G123,H123,I123,J123,K123,L123,M123)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tapon 1/2"', 1, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tapon 1/2"', 1, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>VLOOKUP(B124,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8866,13 +8834,13 @@
         <v>241</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D124" s="3">
         <v>1.5</v>
       </c>
       <c r="G124" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H124" t="str">
         <f>C124</f>
@@ -8886,21 +8854,21 @@
         <v>1.5</v>
       </c>
       <c r="K124" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L124">
         <f t="shared" ref="L124" si="17">A124</f>
         <v>12</v>
       </c>
       <c r="M124" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N124" t="str">
         <f t="shared" ref="N124" si="18">CONCATENATE(G124,H124,I124,J124,K124,L124,M124)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee agua 1/2"', 1.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tee agua 1/2"', 1.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>VLOOKUP(B125,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8909,13 +8877,13 @@
         <v>241</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D125" s="3">
         <v>1.5</v>
       </c>
       <c r="G125" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" ref="H125" si="19">C125</f>
@@ -8929,21 +8897,21 @@
         <v>1.5</v>
       </c>
       <c r="K125" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L125">
         <f t="shared" ref="L125" si="21">A125</f>
         <v>12</v>
       </c>
       <c r="M125" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N125" t="str">
         <f t="shared" ref="N125" si="22">CONCATENATE(G125,H125,I125,J125,K125,L125,M125)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee agua 1/2" CALIENTE', 1.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tee agua 1/2" CALIENTE', 1.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>VLOOKUP(B126,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8952,13 +8920,13 @@
         <v>241</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D126" s="3">
         <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" ref="H126" si="23">C126</f>
@@ -8972,21 +8940,21 @@
         <v>3</v>
       </c>
       <c r="K126" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L126">
         <f t="shared" ref="L126" si="25">A126</f>
         <v>12</v>
       </c>
       <c r="M126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N126" t="str">
         <f t="shared" ref="N126" si="26">CONCATENATE(G126,H126,I126,J126,K126,L126,M126)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee agua 3/4"', 3, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tee agua 3/4"', 3, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>VLOOKUP(B127,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -8995,13 +8963,13 @@
         <v>241</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D127" s="3">
         <v>5</v>
       </c>
       <c r="G127" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" ref="H127:H129" si="27">C127</f>
@@ -9015,21 +8983,21 @@
         <v>5</v>
       </c>
       <c r="K127" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L127">
         <f t="shared" ref="L127:L129" si="29">A127</f>
         <v>12</v>
       </c>
       <c r="M127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N127" t="str">
         <f t="shared" ref="N127:N129" si="30">CONCATENATE(G127,H127,I127,J127,K127,L127,M127)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee bronce 1/2"', 5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tee bronce 1/2"', 5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>VLOOKUP(B128,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9038,13 +9006,13 @@
         <v>241</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D128" s="3">
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="27"/>
@@ -9058,21 +9026,21 @@
         <v>3</v>
       </c>
       <c r="K128" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L128">
         <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="M128" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N128" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee desague 2"', 3, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tee desague 2"', 3, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>VLOOKUP(B129,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9081,13 +9049,13 @@
         <v>241</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D129" s="3">
         <v>6</v>
       </c>
       <c r="G129" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="27"/>
@@ -9101,21 +9069,21 @@
         <v>6</v>
       </c>
       <c r="K129" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L129">
         <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="M129" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N129" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee desague 4"x2"', 6, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tee desague 4"x2"', 6, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>VLOOKUP(B130,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9124,13 +9092,13 @@
         <v>241</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D130" s="3">
         <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" ref="H130" si="31">C130</f>
@@ -9144,21 +9112,21 @@
         <v>7</v>
       </c>
       <c r="K130" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L130">
         <f t="shared" ref="L130" si="33">A130</f>
         <v>12</v>
       </c>
       <c r="M130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N130" t="str">
         <f t="shared" ref="N130" si="34">CONCATENATE(G130,H130,I130,J130,K130,L130,M130)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee desague 4"x4"', 7, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tee desague 4"x4"', 7, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>VLOOKUP(B131,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9167,13 +9135,13 @@
         <v>241</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D131" s="3">
         <v>3.5</v>
       </c>
       <c r="G131" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131" si="35">C131</f>
@@ -9187,21 +9155,21 @@
         <v>3.5</v>
       </c>
       <c r="K131" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L131">
         <f t="shared" ref="L131" si="37">A131</f>
         <v>12</v>
       </c>
       <c r="M131" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N131" t="str">
         <f t="shared" ref="N131" si="38">CONCATENATE(G131,H131,I131,J131,K131,L131,M131)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee desague sanitaria 2"', 3.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tee desague sanitaria 2"', 3.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>VLOOKUP(B132,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9210,13 +9178,13 @@
         <v>241</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D132" s="3">
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" ref="H132" si="39">C132</f>
@@ -9230,36 +9198,36 @@
         <v>2</v>
       </c>
       <c r="K132" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L132">
         <f t="shared" ref="L132" si="41">A132</f>
         <v>12</v>
       </c>
       <c r="M132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N132" t="str">
         <f t="shared" ref="N132" si="42">CONCATENATE(G132,H132,I132,J132,K132,L132,M132)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Teflon', 2, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Teflon', 2, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>VLOOKUP(B133,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D133" s="3">
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" ref="H133:H134" si="43">C133</f>
@@ -9273,36 +9241,36 @@
         <v>3</v>
       </c>
       <c r="K133" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L133">
         <f t="shared" ref="L133:L134" si="45">A133</f>
         <v>2</v>
       </c>
       <c r="M133" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N133" t="str">
         <f t="shared" ref="N133:N134" si="46">CONCATENATE(G133,H133,I133,J133,K133,L133,M133)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tiner 1/2L', 3, 'Activo', 0, 0, 2 ) ; </v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tiner 1/2L', 3, 'Activo', 2 ) ; </v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>VLOOKUP(B134,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D134" s="3">
         <v>6</v>
       </c>
       <c r="G134" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="43"/>
@@ -9316,21 +9284,21 @@
         <v>6</v>
       </c>
       <c r="K134" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L134">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M134" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N134" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tiner 1L', 6, 'Activo', 0, 0, 2 ) ; </v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tiner 1L', 6, 'Activo', 2 ) ; </v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>VLOOKUP(B135,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9345,7 +9313,7 @@
         <v>25</v>
       </c>
       <c r="G135" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" ref="H135" si="47">C135</f>
@@ -9359,21 +9327,21 @@
         <v>25</v>
       </c>
       <c r="K135" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L135">
         <f t="shared" ref="L135" si="49">A135</f>
         <v>12</v>
       </c>
       <c r="M135" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N135" t="str">
         <f t="shared" ref="N135" si="50">CONCATENATE(G135,H135,I135,J135,K135,L135,M135)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Triplay', 25, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Triplay', 25, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>VLOOKUP(B136,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9382,13 +9350,13 @@
         <v>241</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D136" s="4">
         <v>10</v>
       </c>
       <c r="G136" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" ref="H136" si="51">C136</f>
@@ -9402,21 +9370,21 @@
         <v>10</v>
       </c>
       <c r="K136" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L136">
         <f t="shared" ref="L136" si="53">A136</f>
         <v>12</v>
       </c>
       <c r="M136" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N136" t="str">
         <f t="shared" ref="N136" si="54">CONCATENATE(G136,H136,I136,J136,K136,L136,M136)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo agua 1/2"', 10, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tubo agua 1/2"', 10, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>VLOOKUP(B137,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9425,13 +9393,13 @@
         <v>241</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D137" s="3">
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" ref="H137:H138" si="55">C137</f>
@@ -9445,21 +9413,21 @@
         <v>18</v>
       </c>
       <c r="K137" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L137">
         <f t="shared" ref="L137:L138" si="57">A137</f>
         <v>12</v>
       </c>
       <c r="M137" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N137" t="str">
         <f t="shared" ref="N137:N138" si="58">CONCATENATE(G137,H137,I137,J137,K137,L137,M137)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo agua 1/2" CALIENTE', 18, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tubo agua 1/2" CALIENTE', 18, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>VLOOKUP(B138,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9468,13 +9436,13 @@
         <v>241</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D138" s="3">
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="55"/>
@@ -9488,21 +9456,21 @@
         <v>18</v>
       </c>
       <c r="K138" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L138">
         <f t="shared" si="57"/>
         <v>12</v>
       </c>
       <c r="M138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N138" t="str">
         <f t="shared" si="58"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo agua 3/4"', 18, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tubo agua 3/4"', 18, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>VLOOKUP(B139,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9511,13 +9479,13 @@
         <v>241</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D139" s="3">
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" ref="H139" si="59">C139</f>
@@ -9531,21 +9499,21 @@
         <v>10</v>
       </c>
       <c r="K139" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L139">
         <f t="shared" ref="L139" si="61">A139</f>
         <v>12</v>
       </c>
       <c r="M139" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N139" t="str">
         <f t="shared" ref="N139" si="62">CONCATENATE(G139,H139,I139,J139,K139,L139,M139)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo desague 2"', 10, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tubo desague 2"', 10, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>VLOOKUP(B140,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9554,13 +9522,13 @@
         <v>241</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D140" s="3">
         <v>17</v>
       </c>
       <c r="G140" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" ref="H140" si="63">C140</f>
@@ -9574,21 +9542,21 @@
         <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L140">
         <f t="shared" ref="L140" si="65">A140</f>
         <v>12</v>
       </c>
       <c r="M140" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N140" t="str">
         <f t="shared" ref="N140" si="66">CONCATENATE(G140,H140,I140,J140,K140,L140,M140)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo desague 3"', 17, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tubo desague 3"', 17, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>VLOOKUP(B141,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9597,13 +9565,13 @@
         <v>241</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D141" s="3">
         <v>20</v>
       </c>
       <c r="G141" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" ref="H141" si="67">C141</f>
@@ -9617,21 +9585,21 @@
         <v>20</v>
       </c>
       <c r="K141" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L141">
         <f t="shared" ref="L141" si="69">A141</f>
         <v>12</v>
       </c>
       <c r="M141" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N141" t="str">
         <f t="shared" ref="N141" si="70">CONCATENATE(G141,H141,I141,J141,K141,L141,M141)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo desague 4"', 20, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tubo desague 4"', 20, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>VLOOKUP(B142,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9640,13 +9608,13 @@
         <v>241</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D142" s="3">
         <v>6</v>
       </c>
       <c r="G142" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" ref="H142" si="71">C142</f>
@@ -9660,21 +9628,21 @@
         <v>6</v>
       </c>
       <c r="K142" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L142">
         <f t="shared" ref="L142" si="73">A142</f>
         <v>12</v>
       </c>
       <c r="M142" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N142" t="str">
         <f t="shared" ref="N142" si="74">CONCATENATE(G142,H142,I142,J142,K142,L142,M142)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo luz 1"', 6, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tubo luz 1"', 6, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>VLOOKUP(B143,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9683,13 +9651,13 @@
         <v>241</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D143" s="3">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" ref="H143:H144" si="75">C143</f>
@@ -9703,21 +9671,21 @@
         <v>3</v>
       </c>
       <c r="K143" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L143">
         <f t="shared" ref="L143:L144" si="77">A143</f>
         <v>12</v>
       </c>
       <c r="M143" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N143" t="str">
         <f t="shared" ref="N143:N144" si="78">CONCATENATE(G143,H143,I143,J143,K143,L143,M143)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo luz 3/4"', 3, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Tubo luz 3/4"', 3, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>VLOOKUP(B144,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9726,13 +9694,13 @@
         <v>241</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="75"/>
@@ -9746,21 +9714,21 @@
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L144">
         <f t="shared" si="77"/>
         <v>12</v>
       </c>
       <c r="M144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N144" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union agua 1/2"', 1, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Union agua 1/2"', 1, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>VLOOKUP(B145,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9769,13 +9737,13 @@
         <v>241</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D145" s="3">
         <v>2.5</v>
       </c>
       <c r="G145" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" ref="H145:H146" si="79">C145</f>
@@ -9789,21 +9757,21 @@
         <v>2.5</v>
       </c>
       <c r="K145" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L145">
         <f t="shared" ref="L145:L146" si="81">A145</f>
         <v>12</v>
       </c>
       <c r="M145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N145" t="str">
         <f t="shared" ref="N145:N146" si="82">CONCATENATE(G145,H145,I145,J145,K145,L145,M145)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union agua 3/4"', 2.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Union agua 3/4"', 2.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>VLOOKUP(B146,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9812,13 +9780,13 @@
         <v>241</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D146" s="3">
         <v>4</v>
       </c>
       <c r="G146" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="79"/>
@@ -9832,21 +9800,21 @@
         <v>4</v>
       </c>
       <c r="K146" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L146">
         <f t="shared" si="81"/>
         <v>12</v>
       </c>
       <c r="M146" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N146" t="str">
         <f t="shared" si="82"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union bronce 1/2"', 4, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Union bronce 1/2"', 4, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>VLOOKUP(B147,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9855,13 +9823,13 @@
         <v>241</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D147" s="3">
         <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" ref="H147" si="83">C147</f>
@@ -9875,21 +9843,21 @@
         <v>4</v>
       </c>
       <c r="K147" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L147">
         <f t="shared" ref="L147" si="85">A147</f>
         <v>12</v>
       </c>
       <c r="M147" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N147" t="str">
         <f t="shared" ref="N147" si="86">CONCATENATE(G147,H147,I147,J147,K147,L147,M147)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union universal', 4, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Union universal', 4, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>VLOOKUP(B148,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>11</v>
@@ -9898,13 +9866,13 @@
         <v>249</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D148" s="3">
         <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" ref="H148:H149" si="87">C148</f>
@@ -9918,21 +9886,21 @@
         <v>3</v>
       </c>
       <c r="K148" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L148">
         <f t="shared" ref="L148:L149" si="89">A148</f>
         <v>11</v>
       </c>
       <c r="M148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N148" t="str">
         <f t="shared" ref="N148:N149" si="90">CONCATENATE(G148,H148,I148,J148,K148,L148,M148)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Visagra 3" (par)', 3, 'Activo', 0, 0, 11 ) ; </v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Visagra 3" (par)', 3, 'Activo', 11 ) ; </v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>VLOOKUP(B149,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>11</v>
@@ -9941,13 +9909,13 @@
         <v>249</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D149" s="3">
         <v>3.5</v>
       </c>
       <c r="G149" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="87"/>
@@ -9961,21 +9929,21 @@
         <v>3.5</v>
       </c>
       <c r="K149" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L149">
         <f t="shared" si="89"/>
         <v>11</v>
       </c>
       <c r="M149" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N149" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Visagra 3" (par) - capuchino', 3.5, 'Activo', 0, 0, 11 ) ; </v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Visagra 3" (par) - capuchino', 3.5, 'Activo', 11 ) ; </v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>VLOOKUP(B150,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -9984,13 +9952,13 @@
         <v>241</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D150" s="3">
         <v>3</v>
       </c>
       <c r="G150" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" ref="H150:H154" si="91">C150</f>
@@ -10004,21 +9972,21 @@
         <v>3</v>
       </c>
       <c r="K150" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L150">
         <f t="shared" ref="L150:L154" si="93">A150</f>
         <v>12</v>
       </c>
       <c r="M150" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N150" t="str">
         <f t="shared" ref="N150:N154" si="94">CONCATENATE(G150,H150,I150,J150,K150,L150,M150)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee desague 2"', 3, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Yee desague 2"', 3, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <f>VLOOKUP(B151,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -10027,13 +9995,13 @@
         <v>241</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D151" s="3">
         <v>6</v>
       </c>
       <c r="G151" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="91"/>
@@ -10047,21 +10015,21 @@
         <v>6</v>
       </c>
       <c r="K151" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L151">
         <f t="shared" si="93"/>
         <v>12</v>
       </c>
       <c r="M151" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N151" t="str">
         <f t="shared" si="94"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee desague 4"x2"', 6, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Yee desague 4"x2"', 6, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>VLOOKUP(B152,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -10070,13 +10038,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D152" s="3">
         <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="91"/>
@@ -10090,21 +10058,21 @@
         <v>10</v>
       </c>
       <c r="K152" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L152">
         <f t="shared" si="93"/>
         <v>12</v>
       </c>
       <c r="M152" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N152" t="str">
         <f t="shared" si="94"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee desague 4"x4"', 10, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Yee desague 4"x4"', 10, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>VLOOKUP(B153,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -10113,13 +10081,13 @@
         <v>241</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D153" s="3">
         <v>3.5</v>
       </c>
       <c r="G153" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="91"/>
@@ -10133,21 +10101,21 @@
         <v>3.5</v>
       </c>
       <c r="K153" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L153">
         <f t="shared" si="93"/>
         <v>12</v>
       </c>
       <c r="M153" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N153" t="str">
         <f t="shared" si="94"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario 2"', 3.5, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Yee sanitario 2"', 3.5, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>VLOOKUP(B154,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -10156,13 +10124,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D154" s="3">
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="91"/>
@@ -10176,21 +10144,21 @@
         <v>12</v>
       </c>
       <c r="K154" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L154">
         <f t="shared" si="93"/>
         <v>12</v>
       </c>
       <c r="M154" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N154" t="str">
         <f t="shared" si="94"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario 4"', 12, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Yee sanitario 4"', 12, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>VLOOKUP(B155,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>12</v>
@@ -10199,13 +10167,13 @@
         <v>241</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D155" s="3">
         <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" ref="H155" si="95">C155</f>
@@ -10219,21 +10187,21 @@
         <v>7</v>
       </c>
       <c r="K155" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L155">
         <f t="shared" ref="L155" si="97">A155</f>
         <v>12</v>
       </c>
       <c r="M155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N155" t="str">
         <f t="shared" ref="N155" si="98">CONCATENATE(G155,H155,I155,J155,K155,L155,M155)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario 4"x2"', 7, 'Activo', 0, 0, 12 ) ; </v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Yee sanitario 4"x2"', 7, 'Activo', 12 ) ; </v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>VLOOKUP(B156,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>5</v>
@@ -10242,13 +10210,13 @@
         <v>242</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D156" s="3">
         <v>0.7</v>
       </c>
       <c r="G156" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" ref="H156" si="99">C156</f>
@@ -10262,18 +10230,18 @@
         <v>0.7</v>
       </c>
       <c r="K156" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="L156">
         <f t="shared" ref="L156" si="101">A156</f>
         <v>5</v>
       </c>
       <c r="M156" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N156" t="str">
         <f t="shared" ref="N156" si="102">CONCATENATE(G156,H156,I156,J156,K156,L156,M156)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yeso (kilo)', 0.7, 'Activo', 0, 0, 5 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Yeso (kilo)', 0.7, 'Activo', 5 ) ; </v>
       </c>
     </row>
   </sheetData>
@@ -10293,24 +10261,24 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>256</v>
       </c>
@@ -10324,7 +10292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>122</v>
       </c>
@@ -10338,9 +10306,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C7">
         <v>70</v>
@@ -10352,9 +10320,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -10366,9 +10334,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -10380,7 +10348,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>126</v>
       </c>
@@ -10394,9 +10362,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -10408,9 +10376,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -10435,9 +10403,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>254</v>
       </c>
@@ -10445,7 +10413,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10456,18 +10424,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10478,18 +10446,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10500,18 +10468,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10522,7 +10490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10533,7 +10501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10544,7 +10512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10555,7 +10523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10566,7 +10534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10577,18 +10545,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C14" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10613,44 +10581,44 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/database/BD/backup/precios - nuevos unis.xlsx
+++ b/database/BD/backup/precios - nuevos unis.xlsx
@@ -942,24 +942,6 @@
     <t>Disco para concreto 4" - kamasa</t>
   </si>
   <si>
-    <t>Fierro 1/2" - siderperu</t>
-  </si>
-  <si>
-    <t>Fierro 1/4" 6mm - siderperu</t>
-  </si>
-  <si>
-    <t>Fierro 3/4" - siderperu</t>
-  </si>
-  <si>
-    <t>Fierro 3/8" - siderperu</t>
-  </si>
-  <si>
-    <t>Fierro 5/8" - siderperu</t>
-  </si>
-  <si>
-    <t>Fierro 8mm - siderperu</t>
-  </si>
-  <si>
     <t>Foco 27 W</t>
   </si>
   <si>
@@ -1161,21 +1143,6 @@
     <t>San juan de casa blanca</t>
   </si>
   <si>
-    <t>Fierro 1/2" - arequipa</t>
-  </si>
-  <si>
-    <t>Fierro 1/4" 6mm - arequipa</t>
-  </si>
-  <si>
-    <t>Fierro 3/8" - arequipa</t>
-  </si>
-  <si>
-    <t>Fierro 5/8" - arequipa</t>
-  </si>
-  <si>
-    <t>Fierro 8mm - arequipa</t>
-  </si>
-  <si>
     <t>Piedra (Bolsa)</t>
   </si>
   <si>
@@ -1294,6 +1261,39 @@
   </si>
   <si>
     <t xml:space="preserve">, 'Activo', </t>
+  </si>
+  <si>
+    <t>Fierro 1/2" - AREQUIPA</t>
+  </si>
+  <si>
+    <t>Fierro 1/2" - SIDERPERU</t>
+  </si>
+  <si>
+    <t>Fierro 1/4" 6mm - AREQUIPA</t>
+  </si>
+  <si>
+    <t>Fierro 3/8" - AREQUIPA</t>
+  </si>
+  <si>
+    <t>Fierro 5/8" - AREQUIPA</t>
+  </si>
+  <si>
+    <t>Fierro 8mm - AREQUIPA</t>
+  </si>
+  <si>
+    <t>Fierro 1/4" 6mm - SIDERPERU</t>
+  </si>
+  <si>
+    <t>Fierro 3/4" - SIDERPERU</t>
+  </si>
+  <si>
+    <t>Fierro 3/8" - SIDERPERU</t>
+  </si>
+  <si>
+    <t>Fierro 5/8" - SIDERPERU</t>
+  </si>
+  <si>
+    <t>Fierro 8mm - SIDERPERU</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1364,6 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3547,8 +3548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K156"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3585,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>269</v>
@@ -3594,7 +3595,7 @@
         <v>3.5</v>
       </c>
       <c r="G2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H2" t="str">
         <f>C2</f>
@@ -3608,7 +3609,7 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L2">
         <f>A2</f>
@@ -3628,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>106</v>
@@ -3637,7 +3638,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">C3</f>
@@ -3651,7 +3652,7 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="2">A3</f>
@@ -3680,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -3694,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
@@ -3717,13 +3718,13 @@
         <v>241</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -3737,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
@@ -3766,7 +3767,7 @@
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -3780,7 +3781,7 @@
         <v>2.5</v>
       </c>
       <c r="K6" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
@@ -3809,7 +3810,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -3823,7 +3824,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
@@ -3852,7 +3853,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -3866,7 +3867,7 @@
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
@@ -3895,7 +3896,7 @@
         <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -3909,7 +3910,7 @@
         <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
@@ -3932,13 +3933,13 @@
         <v>244</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -3952,7 +3953,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
@@ -3981,7 +3982,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -3995,7 +3996,7 @@
         <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
@@ -4018,13 +4019,13 @@
         <v>244</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -4038,7 +4039,7 @@
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
@@ -4058,16 +4059,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -4081,7 +4082,7 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
@@ -4104,13 +4105,13 @@
         <v>243</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D14" s="3">
         <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -4124,7 +4125,7 @@
         <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
@@ -4147,13 +4148,13 @@
         <v>243</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D15" s="3">
         <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -4167,7 +4168,7 @@
         <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
@@ -4196,7 +4197,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -4210,7 +4211,7 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
@@ -4239,7 +4240,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -4253,7 +4254,7 @@
         <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
@@ -4276,13 +4277,13 @@
         <v>242</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D18" s="3">
         <v>0.7</v>
       </c>
       <c r="G18" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -4296,7 +4297,7 @@
         <v>0.7</v>
       </c>
       <c r="K18" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
@@ -4319,13 +4320,13 @@
         <v>244</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D19" s="3">
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -4339,7 +4340,7 @@
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
@@ -4362,13 +4363,13 @@
         <v>244</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D20" s="3">
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -4382,7 +4383,7 @@
         <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
@@ -4405,13 +4406,13 @@
         <v>244</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D21" s="3">
         <v>19.5</v>
       </c>
       <c r="G21" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -4425,7 +4426,7 @@
         <v>19.5</v>
       </c>
       <c r="K21" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
@@ -4448,13 +4449,13 @@
         <v>244</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D22" s="3">
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -4468,7 +4469,7 @@
         <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
@@ -4491,13 +4492,13 @@
         <v>244</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D23" s="3">
         <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -4511,7 +4512,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
@@ -4534,13 +4535,13 @@
         <v>244</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D24" s="3">
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -4554,7 +4555,7 @@
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
@@ -4577,13 +4578,13 @@
         <v>241</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D25" s="3">
         <v>3.5</v>
       </c>
       <c r="G25" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -4597,7 +4598,7 @@
         <v>3.5</v>
       </c>
       <c r="K25" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
@@ -4620,13 +4621,13 @@
         <v>241</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D26" s="3">
         <v>1.5</v>
       </c>
       <c r="G26" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -4640,7 +4641,7 @@
         <v>1.5</v>
       </c>
       <c r="K26" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
@@ -4669,7 +4670,7 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -4683,7 +4684,7 @@
         <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
@@ -4706,13 +4707,13 @@
         <v>242</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D28" s="3">
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -4726,7 +4727,7 @@
         <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
@@ -4755,7 +4756,7 @@
         <v>4.5</v>
       </c>
       <c r="G29" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -4769,7 +4770,7 @@
         <v>4.5</v>
       </c>
       <c r="K29" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
@@ -4792,13 +4793,13 @@
         <v>242</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D30" s="3">
         <v>4.5</v>
       </c>
       <c r="G30" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -4812,7 +4813,7 @@
         <v>4.5</v>
       </c>
       <c r="K30" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
@@ -4841,7 +4842,7 @@
         <v>4.5</v>
       </c>
       <c r="G31" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -4855,7 +4856,7 @@
         <v>4.5</v>
       </c>
       <c r="K31" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
@@ -4884,7 +4885,7 @@
         <v>4.5</v>
       </c>
       <c r="G32" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -4898,7 +4899,7 @@
         <v>4.5</v>
       </c>
       <c r="K32" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
@@ -4921,13 +4922,13 @@
         <v>245</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D33" s="3">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -4941,7 +4942,7 @@
         <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
@@ -4964,13 +4965,13 @@
         <v>245</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D34" s="3">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -4984,7 +4985,7 @@
         <v>9</v>
       </c>
       <c r="K34" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
@@ -5007,13 +5008,13 @@
         <v>245</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D35" s="3">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -5027,7 +5028,7 @@
         <v>9</v>
       </c>
       <c r="K35" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
@@ -5056,7 +5057,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -5070,7 +5071,7 @@
         <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
@@ -5099,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -5113,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
@@ -5136,13 +5137,13 @@
         <v>241</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -5156,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
@@ -5185,7 +5186,7 @@
         <v>2.5</v>
       </c>
       <c r="G39" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -5199,7 +5200,7 @@
         <v>2.5</v>
       </c>
       <c r="K39" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
@@ -5228,7 +5229,7 @@
         <v>2.5</v>
       </c>
       <c r="G40" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
@@ -5242,7 +5243,7 @@
         <v>2.5</v>
       </c>
       <c r="K40" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
@@ -5271,7 +5272,7 @@
         <v>4.5</v>
       </c>
       <c r="G41" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
@@ -5285,7 +5286,7 @@
         <v>4.5</v>
       </c>
       <c r="K41" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
@@ -5314,7 +5315,7 @@
         <v>1.5</v>
       </c>
       <c r="G42" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
@@ -5328,7 +5329,7 @@
         <v>1.5</v>
       </c>
       <c r="K42" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
@@ -5357,7 +5358,7 @@
         <v>1.5</v>
       </c>
       <c r="G43" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
@@ -5371,7 +5372,7 @@
         <v>1.5</v>
       </c>
       <c r="K43" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
@@ -5400,7 +5401,7 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
@@ -5414,7 +5415,7 @@
         <v>5</v>
       </c>
       <c r="K44" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
@@ -5443,7 +5444,7 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
@@ -5457,7 +5458,7 @@
         <v>5</v>
       </c>
       <c r="K45" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
@@ -5486,7 +5487,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -5500,7 +5501,7 @@
         <v>7</v>
       </c>
       <c r="K46" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
@@ -5529,7 +5530,7 @@
         <v>1.5</v>
       </c>
       <c r="G47" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -5543,7 +5544,7 @@
         <v>1.5</v>
       </c>
       <c r="K47" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
@@ -5572,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -5586,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
@@ -5615,7 +5616,7 @@
         <v>0.5</v>
       </c>
       <c r="G49" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -5629,7 +5630,7 @@
         <v>0.5</v>
       </c>
       <c r="K49" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
@@ -5658,7 +5659,7 @@
         <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -5672,7 +5673,7 @@
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
@@ -5701,7 +5702,7 @@
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -5715,7 +5716,7 @@
         <v>5</v>
       </c>
       <c r="K51" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
@@ -5744,7 +5745,7 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -5758,7 +5759,7 @@
         <v>8</v>
       </c>
       <c r="K52" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
@@ -5787,7 +5788,7 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
@@ -5801,7 +5802,7 @@
         <v>12</v>
       </c>
       <c r="K53" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
@@ -5830,7 +5831,7 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -5844,7 +5845,7 @@
         <v>15</v>
       </c>
       <c r="K54" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
@@ -5873,7 +5874,7 @@
         <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
@@ -5887,7 +5888,7 @@
         <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
@@ -5916,7 +5917,7 @@
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
@@ -5930,7 +5931,7 @@
         <v>30</v>
       </c>
       <c r="K56" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
@@ -5959,7 +5960,7 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
@@ -5973,7 +5974,7 @@
         <v>8</v>
       </c>
       <c r="K57" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
@@ -6002,7 +6003,7 @@
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
@@ -6016,7 +6017,7 @@
         <v>9</v>
       </c>
       <c r="K58" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
@@ -6039,13 +6040,13 @@
         <v>241</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D59" s="3">
         <v>2.5</v>
       </c>
       <c r="G59" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
@@ -6059,7 +6060,7 @@
         <v>2.5</v>
       </c>
       <c r="K59" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
@@ -6088,7 +6089,7 @@
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
@@ -6102,7 +6103,7 @@
         <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
@@ -6131,7 +6132,7 @@
         <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
@@ -6145,7 +6146,7 @@
         <v>16</v>
       </c>
       <c r="K61" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
@@ -6174,7 +6175,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
@@ -6188,7 +6189,7 @@
         <v>32</v>
       </c>
       <c r="K62" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L62">
         <f t="shared" si="2"/>
@@ -6207,21 +6208,21 @@
         <f>VLOOKUP(B63,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>14</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="D63" s="3">
         <v>24.5</v>
       </c>
       <c r="G63" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro 1/2" - arequipa</v>
+        <v>Fierro 1/2" - AREQUIPA</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>264</v>
@@ -6231,7 +6232,7 @@
         <v>24.5</v>
       </c>
       <c r="K63" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
@@ -6242,29 +6243,29 @@
       </c>
       <c r="N63" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/2" - arequipa', 24.5, 'Activo', 14 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/2" - AREQUIPA', 24.5, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>VLOOKUP(B64,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>12</v>
-      </c>
-      <c r="B64" t="s">
-        <v>241</v>
+        <v>14</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
       <c r="D64" s="3">
         <v>25.5</v>
       </c>
       <c r="G64" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro 1/2" - siderperu</v>
+        <v>Fierro 1/2" - SIDERPERU</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>264</v>
@@ -6274,18 +6275,18 @@
         <v>25.5</v>
       </c>
       <c r="K64" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L64">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M64" t="s">
         <v>265</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/2" - siderperu', 25.5, 'Activo', 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/2" - SIDERPERU', 25.5, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -6293,21 +6294,21 @@
         <f>VLOOKUP(B65,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>14</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D65" s="3">
         <v>6.5</v>
       </c>
       <c r="G65" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro 1/4" 6mm - arequipa</v>
+        <v>Fierro 1/4" 6mm - AREQUIPA</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>264</v>
@@ -6317,7 +6318,7 @@
         <v>6.5</v>
       </c>
       <c r="K65" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
@@ -6328,29 +6329,29 @@
       </c>
       <c r="N65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/4" 6mm - arequipa', 6.5, 'Activo', 14 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/4" 6mm - AREQUIPA', 6.5, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>VLOOKUP(B66,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>12</v>
-      </c>
-      <c r="B66" t="s">
-        <v>241</v>
+        <v>14</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>304</v>
+        <v>416</v>
       </c>
       <c r="D66" s="3">
         <v>6.5</v>
       </c>
       <c r="G66" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro 1/4" 6mm - siderperu</v>
+        <v>Fierro 1/4" 6mm - SIDERPERU</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>264</v>
@@ -6360,40 +6361,40 @@
         <v>6.5</v>
       </c>
       <c r="K66" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L66">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M66" t="s">
         <v>265</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/4" 6mm - siderperu', 6.5, 'Activo', 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 1/4" 6mm - SIDERPERU', 6.5, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>VLOOKUP(B67,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>241</v>
+        <v>14</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>305</v>
+        <v>417</v>
       </c>
       <c r="D67" s="3">
         <v>58</v>
       </c>
       <c r="G67" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H121" si="4">C67</f>
-        <v>Fierro 3/4" - siderperu</v>
+        <v>Fierro 3/4" - SIDERPERU</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>264</v>
@@ -6403,18 +6404,18 @@
         <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L121" si="6">A67</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M67" t="s">
         <v>265</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" ref="N67:N121" si="7">CONCATENATE(G67,H67,I67,J67,K67,L67,M67)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 3/4" - siderperu', 58, 'Activo', 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 3/4" - SIDERPERU', 58, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -6422,21 +6423,21 @@
         <f>VLOOKUP(B68,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>14</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="D68" s="3">
         <v>14.5</v>
       </c>
       <c r="G68" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="4"/>
-        <v>Fierro 3/8" - arequipa</v>
+        <v>Fierro 3/8" - AREQUIPA</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>264</v>
@@ -6446,7 +6447,7 @@
         <v>14.5</v>
       </c>
       <c r="K68" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L68">
         <f t="shared" si="6"/>
@@ -6457,29 +6458,29 @@
       </c>
       <c r="N68" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 3/8" - arequipa', 14.5, 'Activo', 14 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 3/8" - AREQUIPA', 14.5, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>VLOOKUP(B69,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
-        <v>241</v>
+        <v>14</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>306</v>
+        <v>418</v>
       </c>
       <c r="D69" s="3">
         <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="4"/>
-        <v>Fierro 3/8" - siderperu</v>
+        <v>Fierro 3/8" - SIDERPERU</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>264</v>
@@ -6489,18 +6490,18 @@
         <v>15</v>
       </c>
       <c r="K69" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L69">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M69" t="s">
         <v>265</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 3/8" - siderperu', 15, 'Activo', 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 3/8" - SIDERPERU', 15, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -6508,21 +6509,21 @@
         <f>VLOOKUP(B70,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>14</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="D70" s="3">
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="4"/>
-        <v>Fierro 5/8" - arequipa</v>
+        <v>Fierro 5/8" - AREQUIPA</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>264</v>
@@ -6532,7 +6533,7 @@
         <v>38</v>
       </c>
       <c r="K70" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L70">
         <f t="shared" si="6"/>
@@ -6543,29 +6544,29 @@
       </c>
       <c r="N70" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 5/8" - arequipa', 38, 'Activo', 14 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 5/8" - AREQUIPA', 38, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>VLOOKUP(B71,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>12</v>
-      </c>
-      <c r="B71" t="s">
-        <v>241</v>
+        <v>14</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>307</v>
+        <v>419</v>
       </c>
       <c r="D71" s="3">
         <v>39.5</v>
       </c>
       <c r="G71" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="4"/>
-        <v>Fierro 5/8" - siderperu</v>
+        <v>Fierro 5/8" - SIDERPERU</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>264</v>
@@ -6575,18 +6576,18 @@
         <v>39.5</v>
       </c>
       <c r="K71" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L71">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M71" t="s">
         <v>265</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 5/8" - siderperu', 39.5, 'Activo', 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 5/8" - SIDERPERU', 39.5, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -6594,21 +6595,21 @@
         <f>VLOOKUP(B72,'Maestra de unidades'!$B:$C,2,0)</f>
         <v>14</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="D72" s="3">
         <v>10.5</v>
       </c>
       <c r="G72" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="4"/>
-        <v>Fierro 8mm - arequipa</v>
+        <v>Fierro 8mm - AREQUIPA</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>264</v>
@@ -6618,7 +6619,7 @@
         <v>10.5</v>
       </c>
       <c r="K72" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L72">
         <f t="shared" si="6"/>
@@ -6629,29 +6630,29 @@
       </c>
       <c r="N72" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 8mm - arequipa', 10.5, 'Activo', 14 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 8mm - AREQUIPA', 10.5, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>VLOOKUP(B73,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>12</v>
-      </c>
-      <c r="B73" t="s">
-        <v>241</v>
+        <v>14</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>308</v>
+        <v>420</v>
       </c>
       <c r="D73" s="3">
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="4"/>
-        <v>Fierro 8mm - siderperu</v>
+        <v>Fierro 8mm - SIDERPERU</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>264</v>
@@ -6661,18 +6662,18 @@
         <v>11</v>
       </c>
       <c r="K73" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L73">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M73" t="s">
         <v>265</v>
       </c>
       <c r="N73" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 8mm - siderperu', 11, 'Activo', 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, idUnit) VALUES ( 'Fierro 8mm - SIDERPERU', 11, 'Activo', 14 ) ; </v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -6684,13 +6685,13 @@
         <v>241</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D74" s="3">
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="4"/>
@@ -6704,7 +6705,7 @@
         <v>5</v>
       </c>
       <c r="K74" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L74">
         <f t="shared" si="6"/>
@@ -6727,13 +6728,13 @@
         <v>241</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D75" s="3">
         <v>6.5</v>
       </c>
       <c r="G75" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="4"/>
@@ -6747,7 +6748,7 @@
         <v>6.5</v>
       </c>
       <c r="K75" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L75">
         <f t="shared" si="6"/>
@@ -6770,13 +6771,13 @@
         <v>241</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D76" s="3">
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="4"/>
@@ -6790,7 +6791,7 @@
         <v>7</v>
       </c>
       <c r="K76" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L76">
         <f t="shared" si="6"/>
@@ -6813,13 +6814,13 @@
         <v>241</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D77" s="3">
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="4"/>
@@ -6833,7 +6834,7 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L77">
         <f t="shared" si="6"/>
@@ -6856,13 +6857,13 @@
         <v>241</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D78" s="3">
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="4"/>
@@ -6876,7 +6877,7 @@
         <v>13</v>
       </c>
       <c r="K78" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L78">
         <f t="shared" si="6"/>
@@ -6899,13 +6900,13 @@
         <v>247</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D79" s="3">
         <v>670</v>
       </c>
       <c r="G79" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="4"/>
@@ -6919,7 +6920,7 @@
         <v>670</v>
       </c>
       <c r="K79" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L79">
         <f t="shared" si="6"/>
@@ -6942,13 +6943,13 @@
         <v>247</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D80" s="3">
         <v>560</v>
       </c>
       <c r="G80" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="4"/>
@@ -6962,7 +6963,7 @@
         <v>560</v>
       </c>
       <c r="K80" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L80">
         <f t="shared" si="6"/>
@@ -6991,7 +6992,7 @@
         <v>410</v>
       </c>
       <c r="G81" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="4"/>
@@ -7005,7 +7006,7 @@
         <v>410</v>
       </c>
       <c r="K81" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L81">
         <f t="shared" si="6"/>
@@ -7034,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="4"/>
@@ -7048,7 +7049,7 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L82">
         <f t="shared" si="6"/>
@@ -7071,13 +7072,13 @@
         <v>247</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D83" s="3">
         <v>2100</v>
       </c>
       <c r="G83" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="4"/>
@@ -7091,7 +7092,7 @@
         <v>2100</v>
       </c>
       <c r="K83" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L83">
         <f t="shared" si="6"/>
@@ -7114,13 +7115,13 @@
         <v>247</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D84" s="3">
         <v>2100</v>
       </c>
       <c r="G84" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="4"/>
@@ -7134,7 +7135,7 @@
         <v>2100</v>
       </c>
       <c r="K84" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L84">
         <f t="shared" si="6"/>
@@ -7157,13 +7158,13 @@
         <v>247</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D85" s="3">
         <v>2000</v>
       </c>
       <c r="G85" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="4"/>
@@ -7177,7 +7178,7 @@
         <v>2000</v>
       </c>
       <c r="K85" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L85">
         <f t="shared" si="6"/>
@@ -7200,13 +7201,13 @@
         <v>241</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D86" s="3">
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="4"/>
@@ -7220,7 +7221,7 @@
         <v>4</v>
       </c>
       <c r="K86" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L86">
         <f t="shared" si="6"/>
@@ -7243,13 +7244,13 @@
         <v>241</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D87" s="3">
         <v>4.5</v>
       </c>
       <c r="G87" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="4"/>
@@ -7263,7 +7264,7 @@
         <v>4.5</v>
       </c>
       <c r="K87" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L87">
         <f t="shared" si="6"/>
@@ -7286,13 +7287,13 @@
         <v>241</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D88" s="3">
         <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="4"/>
@@ -7306,7 +7307,7 @@
         <v>32</v>
       </c>
       <c r="K88" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L88">
         <f t="shared" si="6"/>
@@ -7329,13 +7330,13 @@
         <v>241</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D89" s="3">
         <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="4"/>
@@ -7349,7 +7350,7 @@
         <v>45</v>
       </c>
       <c r="K89" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L89">
         <f t="shared" si="6"/>
@@ -7378,7 +7379,7 @@
         <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="4"/>
@@ -7392,7 +7393,7 @@
         <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L90">
         <f t="shared" si="6"/>
@@ -7415,13 +7416,13 @@
         <v>241</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D91" s="3">
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="4"/>
@@ -7435,7 +7436,7 @@
         <v>38</v>
       </c>
       <c r="K91" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L91">
         <f t="shared" si="6"/>
@@ -7458,13 +7459,13 @@
         <v>241</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D92" s="3">
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="4"/>
@@ -7478,7 +7479,7 @@
         <v>38</v>
       </c>
       <c r="K92" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L92">
         <f t="shared" si="6"/>
@@ -7501,13 +7502,13 @@
         <v>241</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D93" s="3">
         <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="4"/>
@@ -7521,7 +7522,7 @@
         <v>38</v>
       </c>
       <c r="K93" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L93">
         <f t="shared" si="6"/>
@@ -7544,13 +7545,13 @@
         <v>241</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D94" s="3">
         <v>50</v>
       </c>
       <c r="G94" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="4"/>
@@ -7564,7 +7565,7 @@
         <v>50</v>
       </c>
       <c r="K94" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L94">
         <f t="shared" si="6"/>
@@ -7587,13 +7588,13 @@
         <v>241</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D95" s="3">
         <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="4"/>
@@ -7607,7 +7608,7 @@
         <v>18</v>
       </c>
       <c r="K95" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L95">
         <f t="shared" si="6"/>
@@ -7636,7 +7637,7 @@
         <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="4"/>
@@ -7650,7 +7651,7 @@
         <v>7</v>
       </c>
       <c r="K96" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L96">
         <f t="shared" si="6"/>
@@ -7673,13 +7674,13 @@
         <v>241</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="4"/>
@@ -7693,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L97">
         <f t="shared" si="6"/>
@@ -7716,13 +7717,13 @@
         <v>241</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D98" s="3">
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="4"/>
@@ -7736,7 +7737,7 @@
         <v>4</v>
       </c>
       <c r="K98" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L98">
         <f t="shared" si="6"/>
@@ -7765,7 +7766,7 @@
         <v>1.5</v>
       </c>
       <c r="G99" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="4"/>
@@ -7779,7 +7780,7 @@
         <v>1.5</v>
       </c>
       <c r="K99" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L99">
         <f t="shared" si="6"/>
@@ -7802,13 +7803,13 @@
         <v>241</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D100" s="3">
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="4"/>
@@ -7822,7 +7823,7 @@
         <v>7</v>
       </c>
       <c r="K100" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L100">
         <f t="shared" si="6"/>
@@ -7845,13 +7846,13 @@
         <v>241</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D101" s="3">
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="4"/>
@@ -7865,7 +7866,7 @@
         <v>8</v>
       </c>
       <c r="K101" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L101">
         <f t="shared" si="6"/>
@@ -7888,13 +7889,13 @@
         <v>244</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D102" s="3">
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="4"/>
@@ -7908,7 +7909,7 @@
         <v>14</v>
       </c>
       <c r="K102" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L102">
         <f t="shared" si="6"/>
@@ -7928,16 +7929,16 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D103" s="3">
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="4"/>
@@ -7951,7 +7952,7 @@
         <v>11</v>
       </c>
       <c r="K103" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L103">
         <f t="shared" si="6"/>
@@ -7971,16 +7972,16 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D104" s="3">
         <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="4"/>
@@ -7994,7 +7995,7 @@
         <v>10</v>
       </c>
       <c r="K104" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L104">
         <f t="shared" si="6"/>
@@ -8014,16 +8015,16 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D105" s="3">
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="4"/>
@@ -8037,7 +8038,7 @@
         <v>8</v>
       </c>
       <c r="K105" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L105">
         <f t="shared" si="6"/>
@@ -8057,16 +8058,16 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D106" s="3">
         <v>7</v>
       </c>
       <c r="G106" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="4"/>
@@ -8080,7 +8081,7 @@
         <v>7</v>
       </c>
       <c r="K106" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L106">
         <f t="shared" si="6"/>
@@ -8100,16 +8101,16 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D107" s="3">
         <v>28</v>
       </c>
       <c r="G107" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="4"/>
@@ -8123,7 +8124,7 @@
         <v>28</v>
       </c>
       <c r="K107" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L107">
         <f t="shared" si="6"/>
@@ -8143,16 +8144,16 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D108" s="3">
         <v>25</v>
       </c>
       <c r="G108" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="4"/>
@@ -8166,7 +8167,7 @@
         <v>25</v>
       </c>
       <c r="K108" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L108">
         <f t="shared" si="6"/>
@@ -8186,16 +8187,16 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D109" s="3">
         <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="4"/>
@@ -8209,7 +8210,7 @@
         <v>15</v>
       </c>
       <c r="K109" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L109">
         <f t="shared" si="6"/>
@@ -8229,16 +8230,16 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D110" s="3">
         <v>6.5</v>
       </c>
       <c r="G110" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="4"/>
@@ -8252,7 +8253,7 @@
         <v>6.5</v>
       </c>
       <c r="K110" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L110">
         <f t="shared" si="6"/>
@@ -8275,13 +8276,13 @@
         <v>244</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D111" s="3">
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="4"/>
@@ -8295,7 +8296,7 @@
         <v>3</v>
       </c>
       <c r="K111" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L111">
         <f t="shared" si="6"/>
@@ -8324,7 +8325,7 @@
         <v>50</v>
       </c>
       <c r="G112" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="4"/>
@@ -8338,7 +8339,7 @@
         <v>50</v>
       </c>
       <c r="K112" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L112">
         <f t="shared" si="6"/>
@@ -8367,7 +8368,7 @@
         <v>50</v>
       </c>
       <c r="G113" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H113" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8381,7 +8382,7 @@
         <v>50</v>
       </c>
       <c r="K113" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L113" s="10">
         <f t="shared" si="6"/>
@@ -8410,7 +8411,7 @@
         <v>50</v>
       </c>
       <c r="G114" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H114" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8424,7 +8425,7 @@
         <v>50</v>
       </c>
       <c r="K114" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L114" s="10">
         <f t="shared" si="6"/>
@@ -8453,7 +8454,7 @@
         <v>1.5</v>
       </c>
       <c r="G115" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H115" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8467,7 +8468,7 @@
         <v>1.5</v>
       </c>
       <c r="K115" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L115" s="10">
         <f t="shared" si="6"/>
@@ -8490,13 +8491,13 @@
         <v>241</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D116" s="12">
         <v>3.5</v>
       </c>
       <c r="G116" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H116" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8510,7 +8511,7 @@
         <v>3.5</v>
       </c>
       <c r="K116" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L116" s="10">
         <f t="shared" si="6"/>
@@ -8533,13 +8534,13 @@
         <v>241</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D117" s="12">
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H117" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8553,7 +8554,7 @@
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L117" s="10">
         <f t="shared" si="6"/>
@@ -8576,13 +8577,13 @@
         <v>241</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D118" s="12">
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H118" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8596,7 +8597,7 @@
         <v>12</v>
       </c>
       <c r="K118" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L118" s="10">
         <f t="shared" si="6"/>
@@ -8616,16 +8617,16 @@
         <v>4</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D119" s="12">
         <v>5</v>
       </c>
       <c r="G119" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H119" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8639,7 +8640,7 @@
         <v>5</v>
       </c>
       <c r="K119" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L119" s="10">
         <f t="shared" si="6"/>
@@ -8662,13 +8663,13 @@
         <v>244</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D120" s="12">
         <v>4.5</v>
       </c>
       <c r="G120" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H120" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8682,7 +8683,7 @@
         <v>4.5</v>
       </c>
       <c r="K120" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L120" s="10">
         <f t="shared" si="6"/>
@@ -8705,13 +8706,13 @@
         <v>241</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D121" s="12">
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H121" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8725,7 +8726,7 @@
         <v>4</v>
       </c>
       <c r="K121" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L121" s="10">
         <f t="shared" si="6"/>
@@ -8748,13 +8749,13 @@
         <v>241</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D122" s="12">
         <v>410</v>
       </c>
       <c r="G122" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H122" s="10" t="str">
         <f t="shared" ref="H122" si="8">C122</f>
@@ -8768,7 +8769,7 @@
         <v>410</v>
       </c>
       <c r="K122" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L122" s="10">
         <f t="shared" ref="L122" si="10">A122</f>
@@ -8791,13 +8792,13 @@
         <v>241</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D123" s="12">
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H123" s="10" t="str">
         <f t="shared" ref="H123" si="12">C123</f>
@@ -8811,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L123" s="10">
         <f t="shared" ref="L123" si="14">A123</f>
@@ -8834,13 +8835,13 @@
         <v>241</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D124" s="3">
         <v>1.5</v>
       </c>
       <c r="G124" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H124" t="str">
         <f>C124</f>
@@ -8854,7 +8855,7 @@
         <v>1.5</v>
       </c>
       <c r="K124" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L124">
         <f t="shared" ref="L124" si="17">A124</f>
@@ -8877,13 +8878,13 @@
         <v>241</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D125" s="3">
         <v>1.5</v>
       </c>
       <c r="G125" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" ref="H125" si="19">C125</f>
@@ -8897,7 +8898,7 @@
         <v>1.5</v>
       </c>
       <c r="K125" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L125">
         <f t="shared" ref="L125" si="21">A125</f>
@@ -8920,13 +8921,13 @@
         <v>241</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D126" s="3">
         <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" ref="H126" si="23">C126</f>
@@ -8940,7 +8941,7 @@
         <v>3</v>
       </c>
       <c r="K126" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L126">
         <f t="shared" ref="L126" si="25">A126</f>
@@ -8963,13 +8964,13 @@
         <v>241</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D127" s="3">
         <v>5</v>
       </c>
       <c r="G127" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" ref="H127:H129" si="27">C127</f>
@@ -8983,7 +8984,7 @@
         <v>5</v>
       </c>
       <c r="K127" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L127">
         <f t="shared" ref="L127:L129" si="29">A127</f>
@@ -9006,13 +9007,13 @@
         <v>241</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D128" s="3">
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="27"/>
@@ -9026,7 +9027,7 @@
         <v>3</v>
       </c>
       <c r="K128" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L128">
         <f t="shared" si="29"/>
@@ -9049,13 +9050,13 @@
         <v>241</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D129" s="3">
         <v>6</v>
       </c>
       <c r="G129" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="27"/>
@@ -9069,7 +9070,7 @@
         <v>6</v>
       </c>
       <c r="K129" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L129">
         <f t="shared" si="29"/>
@@ -9092,13 +9093,13 @@
         <v>241</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D130" s="3">
         <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" ref="H130" si="31">C130</f>
@@ -9112,7 +9113,7 @@
         <v>7</v>
       </c>
       <c r="K130" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L130">
         <f t="shared" ref="L130" si="33">A130</f>
@@ -9135,13 +9136,13 @@
         <v>241</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D131" s="3">
         <v>3.5</v>
       </c>
       <c r="G131" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131" si="35">C131</f>
@@ -9155,7 +9156,7 @@
         <v>3.5</v>
       </c>
       <c r="K131" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L131">
         <f t="shared" ref="L131" si="37">A131</f>
@@ -9178,13 +9179,13 @@
         <v>241</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D132" s="3">
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" ref="H132" si="39">C132</f>
@@ -9198,7 +9199,7 @@
         <v>2</v>
       </c>
       <c r="K132" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L132">
         <f t="shared" ref="L132" si="41">A132</f>
@@ -9218,16 +9219,16 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D133" s="3">
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" ref="H133:H134" si="43">C133</f>
@@ -9241,7 +9242,7 @@
         <v>3</v>
       </c>
       <c r="K133" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L133">
         <f t="shared" ref="L133:L134" si="45">A133</f>
@@ -9261,16 +9262,16 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D134" s="3">
         <v>6</v>
       </c>
       <c r="G134" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="43"/>
@@ -9284,7 +9285,7 @@
         <v>6</v>
       </c>
       <c r="K134" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L134">
         <f t="shared" si="45"/>
@@ -9313,7 +9314,7 @@
         <v>25</v>
       </c>
       <c r="G135" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" ref="H135" si="47">C135</f>
@@ -9327,7 +9328,7 @@
         <v>25</v>
       </c>
       <c r="K135" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L135">
         <f t="shared" ref="L135" si="49">A135</f>
@@ -9350,13 +9351,13 @@
         <v>241</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D136" s="4">
         <v>10</v>
       </c>
       <c r="G136" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" ref="H136" si="51">C136</f>
@@ -9370,7 +9371,7 @@
         <v>10</v>
       </c>
       <c r="K136" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L136">
         <f t="shared" ref="L136" si="53">A136</f>
@@ -9393,13 +9394,13 @@
         <v>241</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D137" s="3">
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" ref="H137:H138" si="55">C137</f>
@@ -9413,7 +9414,7 @@
         <v>18</v>
       </c>
       <c r="K137" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L137">
         <f t="shared" ref="L137:L138" si="57">A137</f>
@@ -9436,13 +9437,13 @@
         <v>241</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D138" s="3">
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="55"/>
@@ -9456,7 +9457,7 @@
         <v>18</v>
       </c>
       <c r="K138" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L138">
         <f t="shared" si="57"/>
@@ -9479,13 +9480,13 @@
         <v>241</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D139" s="3">
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" ref="H139" si="59">C139</f>
@@ -9499,7 +9500,7 @@
         <v>10</v>
       </c>
       <c r="K139" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L139">
         <f t="shared" ref="L139" si="61">A139</f>
@@ -9522,13 +9523,13 @@
         <v>241</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D140" s="3">
         <v>17</v>
       </c>
       <c r="G140" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" ref="H140" si="63">C140</f>
@@ -9542,7 +9543,7 @@
         <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L140">
         <f t="shared" ref="L140" si="65">A140</f>
@@ -9565,13 +9566,13 @@
         <v>241</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D141" s="3">
         <v>20</v>
       </c>
       <c r="G141" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" ref="H141" si="67">C141</f>
@@ -9585,7 +9586,7 @@
         <v>20</v>
       </c>
       <c r="K141" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L141">
         <f t="shared" ref="L141" si="69">A141</f>
@@ -9608,13 +9609,13 @@
         <v>241</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D142" s="3">
         <v>6</v>
       </c>
       <c r="G142" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" ref="H142" si="71">C142</f>
@@ -9628,7 +9629,7 @@
         <v>6</v>
       </c>
       <c r="K142" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L142">
         <f t="shared" ref="L142" si="73">A142</f>
@@ -9651,13 +9652,13 @@
         <v>241</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D143" s="3">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" ref="H143:H144" si="75">C143</f>
@@ -9671,7 +9672,7 @@
         <v>3</v>
       </c>
       <c r="K143" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L143">
         <f t="shared" ref="L143:L144" si="77">A143</f>
@@ -9694,13 +9695,13 @@
         <v>241</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="75"/>
@@ -9714,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L144">
         <f t="shared" si="77"/>
@@ -9737,13 +9738,13 @@
         <v>241</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D145" s="3">
         <v>2.5</v>
       </c>
       <c r="G145" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" ref="H145:H146" si="79">C145</f>
@@ -9757,7 +9758,7 @@
         <v>2.5</v>
       </c>
       <c r="K145" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L145">
         <f t="shared" ref="L145:L146" si="81">A145</f>
@@ -9780,13 +9781,13 @@
         <v>241</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D146" s="3">
         <v>4</v>
       </c>
       <c r="G146" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="79"/>
@@ -9800,7 +9801,7 @@
         <v>4</v>
       </c>
       <c r="K146" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L146">
         <f t="shared" si="81"/>
@@ -9823,13 +9824,13 @@
         <v>241</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D147" s="3">
         <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" ref="H147" si="83">C147</f>
@@ -9843,7 +9844,7 @@
         <v>4</v>
       </c>
       <c r="K147" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L147">
         <f t="shared" ref="L147" si="85">A147</f>
@@ -9866,13 +9867,13 @@
         <v>249</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D148" s="3">
         <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" ref="H148:H149" si="87">C148</f>
@@ -9886,7 +9887,7 @@
         <v>3</v>
       </c>
       <c r="K148" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L148">
         <f t="shared" ref="L148:L149" si="89">A148</f>
@@ -9909,13 +9910,13 @@
         <v>249</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D149" s="3">
         <v>3.5</v>
       </c>
       <c r="G149" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="87"/>
@@ -9929,7 +9930,7 @@
         <v>3.5</v>
       </c>
       <c r="K149" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L149">
         <f t="shared" si="89"/>
@@ -9952,13 +9953,13 @@
         <v>241</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D150" s="3">
         <v>3</v>
       </c>
       <c r="G150" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" ref="H150:H154" si="91">C150</f>
@@ -9972,7 +9973,7 @@
         <v>3</v>
       </c>
       <c r="K150" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L150">
         <f t="shared" ref="L150:L154" si="93">A150</f>
@@ -9995,13 +9996,13 @@
         <v>241</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D151" s="3">
         <v>6</v>
       </c>
       <c r="G151" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="91"/>
@@ -10015,7 +10016,7 @@
         <v>6</v>
       </c>
       <c r="K151" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L151">
         <f t="shared" si="93"/>
@@ -10038,13 +10039,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D152" s="3">
         <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="91"/>
@@ -10058,7 +10059,7 @@
         <v>10</v>
       </c>
       <c r="K152" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L152">
         <f t="shared" si="93"/>
@@ -10081,13 +10082,13 @@
         <v>241</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D153" s="3">
         <v>3.5</v>
       </c>
       <c r="G153" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="91"/>
@@ -10101,7 +10102,7 @@
         <v>3.5</v>
       </c>
       <c r="K153" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L153">
         <f t="shared" si="93"/>
@@ -10124,13 +10125,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D154" s="3">
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="91"/>
@@ -10144,7 +10145,7 @@
         <v>12</v>
       </c>
       <c r="K154" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L154">
         <f t="shared" si="93"/>
@@ -10167,13 +10168,13 @@
         <v>241</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D155" s="3">
         <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" ref="H155" si="95">C155</f>
@@ -10187,7 +10188,7 @@
         <v>7</v>
       </c>
       <c r="K155" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L155">
         <f t="shared" ref="L155" si="97">A155</f>
@@ -10210,13 +10211,13 @@
         <v>242</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D156" s="3">
         <v>0.7</v>
       </c>
       <c r="G156" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" ref="H156" si="99">C156</f>
@@ -10230,7 +10231,7 @@
         <v>0.7</v>
       </c>
       <c r="K156" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L156">
         <f t="shared" ref="L156" si="101">A156</f>
@@ -10249,7 +10250,7 @@
     <sortCondition ref="C2:C156"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10272,7 +10273,7 @@
         <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E4" t="s">
         <v>258</v>
@@ -10308,7 +10309,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C7">
         <v>70</v>
@@ -10322,7 +10323,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -10336,7 +10337,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -10364,7 +10365,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -10378,7 +10379,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -10400,7 +10401,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10429,7 +10430,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -10451,7 +10452,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -10473,7 +10474,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -10550,7 +10551,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C14" s="9">
         <v>13</v>
@@ -10598,17 +10599,17 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -10618,7 +10619,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
